--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -593,10 +593,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -879,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -896,7 +896,7 @@
     <col min="7" max="7" width="34.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -941,8 +941,12 @@
       <c r="G2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="str">
+        <f>"INSERT INTO RESORT VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"', now(), now());"</f>
+        <v>INSERT INTO RESORT VALUES('R001','좌구산자연휴양림','http://jwagu.jp.go.kr/','http://jwagu.jp.go.kr/jwagusan.do?cmd=gallery.galleryImgView&amp;imgSrc=http://jwagu.jp.go.kr/upload/p1bo9a5mb31ink7aj1tpu10mg1pje4','충북','충북 증평군 증평읍 솟점말길 107','043-835-4551~3 (좌구산자연휴양림)', now(), now());</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -964,8 +968,12 @@
       <c r="G3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H15" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', now(), now());"</f>
+        <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', now(), now());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -987,8 +995,12 @@
       <c r="G4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R003','광치자연휴양림','https://www.kwangchi.or.kr:451/','https://www.kwangchi.or.kr:451/board/files/inno_6/test_img5.jpg','강원','강원도 양구군 남면 광치령로1794번길 265 ','대표전화 (033) 482-3115', now(), now());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1010,8 +1022,12 @@
       <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R004','문성자연휴양림','http://msf.cj100.net/','http://msf.cj100.net/board/files/inno_6/IMG_6605.JPG','충북','충청북도 충주시 노은면 우성1길 191','043-870-7911~7914 (휴양림관리사무소)', now(), now());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1033,8 +1049,12 @@
       <c r="G6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R005','봉황자연휴양림','http://bhf.cj100.net/main.asp','http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%82%B0%EC%B1%85%EB%A1%9C.jpg','충북','충청북도 충주시 중앙탑면 수룡봉황길 540','043-870-7920~2', now(), now());</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1056,8 +1076,12 @@
       <c r="G7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R006','계명산자연휴양림','http://gmf.cjfmc.or.kr/main.asp','http://gmf.cjfmc.or.kr/board/files/inno_5/DSC00298.jpg','충북','충청북도 충주시 충주호수로 1170','043-870-7930~2 / 휴양림관리사무소', now(), now());</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1079,8 +1103,12 @@
       <c r="G8" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R007','가리산자연휴양림','http://www.garisan.kr/','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424650&amp;fileSn=1&amp;thumbYn=Y','강원','강원도 홍천군 두촌면 가리산길 426 (천현리 산134-1) 홍천군유림','033-435-6034', now(), now());</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1102,8 +1130,12 @@
       <c r="G9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R008','봉수산자연휴양림','http://www.bongsoosan.com','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424680&amp;fileSn=2&amp;thumbYn=Y','충남','충청남도 예산군 대흥면 임존성길153 (상중리 470-3)','(041) 339-8936~8', now(), now());</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1125,8 +1157,12 @@
       <c r="G10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R009','구재봉자연휴양림','http://hadongforest.co.kr/','http://hadongforest.co.kr/files/2016/05/19/8a203687e0e42cf69d6e795007c2aa15144108.jpg','경남','경상남도 하동군 적량면 중서길 60-81','070)8855-8011~2', now(), now());</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1148,8 +1184,12 @@
       <c r="G11" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R010','군위장곡자연휴양림','http://janggok.gunwi.go.kr/','http://janggok.gunwi.go.kr/new/board/data/winter/1233218459_0.jpg','경북','경북 군위군 고로면 장곡리 산 1-1, 5번지','054-380-6313', now(), now());</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1171,8 +1211,12 @@
       <c r="G12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R011','강씨봉자연휴양림','http://farm.gg.go.kr/sigt/56','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_kang_info.jpg','경기','경기도 가평군 북면 논남기길 520(적목리 324)','(031) 8008-6611', now(), now());</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1194,8 +1238,12 @@
       <c r="G13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R012','축령산자연휴양림','http://farm.gg.go.kr/sigt/41','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_chuk_info1.jpg','경기','경기도 남양주시 수동면 축령산로299','(031) 592-0681, 8008-6690', now(), now());</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1217,8 +1265,12 @@
       <c r="G14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R013','박달재자연휴양림','http://baf.cbhuyang.go.kr/','http://baf.cbhuyang.go.kr/images/facilities/dImg/room3/img1.jpg','충북','충북 제천시 백운면 금봉로 228','(043) 652-0910', now(), now());</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1239,6 +1291,10 @@
       </c>
       <c r="G15" t="s">
         <v>96</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', now(), now());</v>
       </c>
     </row>
   </sheetData>
@@ -1362,219 +1418,219 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>117</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>117</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>117</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9" t="s">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9" t="s">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="144">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,13 +464,54 @@
   <si>
     <t>온달동굴</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠갑산자연휴양림</t>
+  </si>
+  <si>
+    <t>http://chilgap.cheongyang.go.kr/</t>
+  </si>
+  <si>
+    <t>충남 청양군 대치면 칠갑산로 668-103</t>
+  </si>
+  <si>
+    <t>041-940-2428~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bongsoosan.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bongsoosan.com/images/facilities/gallery2/img2.jpg</t>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남 예산군 대흥면 임존성길 153</t>
+  </si>
+  <si>
+    <t>041-339-8936~8</t>
+  </si>
+  <si>
+    <t>http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +561,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF454545"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -567,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,6 +645,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -879,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H15"/>
+      <selection activeCell="H2" sqref="H2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -969,7 +1026,7 @@
         <v>42</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H15" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', now(), now());"</f>
+        <f t="shared" ref="H3:H17" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', now(), now());"</f>
         <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', now(), now());</v>
       </c>
     </row>
@@ -1295,6 +1352,60 @@
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', now(), now());</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R015','봉수산자연휴양림','http://www.bongsoosan.com/','http://www.bongsoosan.com/images/facilities/gallery2/img2.jpg','충남','충남 예산군 대흥면 임존성길 153','041-339-8936~8', now(), now());</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', now(), now());</v>
       </c>
     </row>
   </sheetData>
@@ -1312,9 +1423,10 @@
     <hyperlink ref="D9" r:id="rId10"/>
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="D12" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="145">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,24 +487,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.bongsoosan.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.bongsoosan.com/images/facilities/gallery2/img2.jpg</t>
+    <t>http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg</t>
+  </si>
+  <si>
+    <t>남이자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forestown.geumsan.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>충남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>충남 예산군 대흥면 임존성길 153</t>
-  </si>
-  <si>
-    <t>041-339-8936~8</t>
-  </si>
-  <si>
-    <t>http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg</t>
+    <t>충남 금산군 남이면 느티골길 200</t>
+  </si>
+  <si>
+    <t>041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)</t>
   </si>
 </sst>
 </file>
@@ -615,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,9 +648,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -653,6 +655,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -939,7 +947,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1354,53 +1362,53 @@
         <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', now(), now());</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="D16" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>142</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R015','봉수산자연휴양림','http://www.bongsoosan.com/','http://www.bongsoosan.com/images/facilities/gallery2/img2.jpg','충남','충남 예산군 대흥면 임존성길 153','041-339-8936~8', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R015','남이자연휴양림','http://forestown.geumsan.go.kr/','http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg','충남','충남 금산군 남이면 느티골길 200','041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)', now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>137</v>
       </c>
       <c r="H17" t="str">
@@ -1424,9 +1432,10 @@
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="D12" r:id="rId12"/>
     <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -1580,10 +1589,10 @@
         <v>117</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D8" s="8" t="s">
@@ -1602,10 +1611,10 @@
         <v>117</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D9" s="8" t="s">
@@ -1624,10 +1633,10 @@
         <v>117</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D10" s="8" t="s">

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,6 +510,31 @@
   </si>
   <si>
     <t>041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)</t>
+  </si>
+  <si>
+    <t>R017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화동자연휴양림</t>
+  </si>
+  <si>
+    <t>http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg</t>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북 장수군 번암면 방화동로 778</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>063-353-0855</t>
   </si>
 </sst>
 </file>
@@ -657,11 +682,11 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -944,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1372,7 +1397,7 @@
       <c r="C16" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>141</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -1414,6 +1439,29 @@
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', now(), now());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1433,9 +1481,10 @@
     <hyperlink ref="D12" r:id="rId12"/>
     <hyperlink ref="C16" r:id="rId13"/>
     <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="C18" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1589,10 +1638,10 @@
         <v>117</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="12"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D8" s="8" t="s">
@@ -1611,10 +1660,10 @@
         <v>117</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="12"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D9" s="8" t="s">
@@ -1633,10 +1682,10 @@
         <v>117</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="12"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D10" s="8" t="s">

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -972,7 +972,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1059,7 @@
         <v>42</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H17" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', now(), now());"</f>
+        <f t="shared" ref="H3:H18" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', now(), now());"</f>
         <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', now(), now());</v>
       </c>
     </row>
@@ -1462,6 +1462,10 @@
       </c>
       <c r="G18" s="9" t="s">
         <v>151</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R017','방화동자연휴양림','http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp','http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg','전북','전북 장수군 번암면 방화동로 778','063-353-0855', now(), now());</v>
       </c>
     </row>
   </sheetData>

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -971,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
@@ -1032,8 +1032,8 @@
         <v>39</v>
       </c>
       <c r="H2" t="str">
-        <f>"INSERT INTO RESORT VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"', now(), now());"</f>
-        <v>INSERT INTO RESORT VALUES('R001','좌구산자연휴양림','http://jwagu.jp.go.kr/','http://jwagu.jp.go.kr/jwagusan.do?cmd=gallery.galleryImgView&amp;imgSrc=http://jwagu.jp.go.kr/upload/p1bo9a5mb31ink7aj1tpu10mg1pje4','충북','충북 증평군 증평읍 솟점말길 107','043-835-4551~3 (좌구산자연휴양림)', now(), now());</v>
+        <f>"INSERT INTO RESORT VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"', 'Y', now(), now());"</f>
+        <v>INSERT INTO RESORT VALUES('R001','좌구산자연휴양림','http://jwagu.jp.go.kr/','http://jwagu.jp.go.kr/jwagusan.do?cmd=gallery.galleryImgView&amp;imgSrc=http://jwagu.jp.go.kr/upload/p1bo9a5mb31ink7aj1tpu10mg1pje4','충북','충북 증평군 증평읍 솟점말길 107','043-835-4551~3 (좌구산자연휴양림)', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1059,8 +1059,8 @@
         <v>42</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H18" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', now(), now());"</f>
-        <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', now(), now());</v>
+        <f t="shared" ref="H3:H18" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', 'Y', now(), now());"</f>
+        <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R003','광치자연휴양림','https://www.kwangchi.or.kr:451/','https://www.kwangchi.or.kr:451/board/files/inno_6/test_img5.jpg','강원','강원도 양구군 남면 광치령로1794번길 265 ','대표전화 (033) 482-3115', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R003','광치자연휴양림','https://www.kwangchi.or.kr:451/','https://www.kwangchi.or.kr:451/board/files/inno_6/test_img5.jpg','강원','강원도 양구군 남면 광치령로1794번길 265 ','대표전화 (033) 482-3115', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R004','문성자연휴양림','http://msf.cj100.net/','http://msf.cj100.net/board/files/inno_6/IMG_6605.JPG','충북','충청북도 충주시 노은면 우성1길 191','043-870-7911~7914 (휴양림관리사무소)', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R004','문성자연휴양림','http://msf.cj100.net/','http://msf.cj100.net/board/files/inno_6/IMG_6605.JPG','충북','충청북도 충주시 노은면 우성1길 191','043-870-7911~7914 (휴양림관리사무소)', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R005','봉황자연휴양림','http://bhf.cj100.net/main.asp','http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%82%B0%EC%B1%85%EB%A1%9C.jpg','충북','충청북도 충주시 중앙탑면 수룡봉황길 540','043-870-7920~2', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R005','봉황자연휴양림','http://bhf.cj100.net/main.asp','http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%82%B0%EC%B1%85%EB%A1%9C.jpg','충북','충청북도 충주시 중앙탑면 수룡봉황길 540','043-870-7920~2', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R006','계명산자연휴양림','http://gmf.cjfmc.or.kr/main.asp','http://gmf.cjfmc.or.kr/board/files/inno_5/DSC00298.jpg','충북','충청북도 충주시 충주호수로 1170','043-870-7930~2 / 휴양림관리사무소', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R006','계명산자연휴양림','http://gmf.cjfmc.or.kr/main.asp','http://gmf.cjfmc.or.kr/board/files/inno_5/DSC00298.jpg','충북','충청북도 충주시 충주호수로 1170','043-870-7930~2 / 휴양림관리사무소', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R007','가리산자연휴양림','http://www.garisan.kr/','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424650&amp;fileSn=1&amp;thumbYn=Y','강원','강원도 홍천군 두촌면 가리산길 426 (천현리 산134-1) 홍천군유림','033-435-6034', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R007','가리산자연휴양림','http://www.garisan.kr/','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424650&amp;fileSn=1&amp;thumbYn=Y','강원','강원도 홍천군 두촌면 가리산길 426 (천현리 산134-1) 홍천군유림','033-435-6034', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R008','봉수산자연휴양림','http://www.bongsoosan.com','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424680&amp;fileSn=2&amp;thumbYn=Y','충남','충청남도 예산군 대흥면 임존성길153 (상중리 470-3)','(041) 339-8936~8', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R008','봉수산자연휴양림','http://www.bongsoosan.com','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424680&amp;fileSn=2&amp;thumbYn=Y','충남','충청남도 예산군 대흥면 임존성길153 (상중리 470-3)','(041) 339-8936~8', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R009','구재봉자연휴양림','http://hadongforest.co.kr/','http://hadongforest.co.kr/files/2016/05/19/8a203687e0e42cf69d6e795007c2aa15144108.jpg','경남','경상남도 하동군 적량면 중서길 60-81','070)8855-8011~2', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R009','구재봉자연휴양림','http://hadongforest.co.kr/','http://hadongforest.co.kr/files/2016/05/19/8a203687e0e42cf69d6e795007c2aa15144108.jpg','경남','경상남도 하동군 적량면 중서길 60-81','070)8855-8011~2', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R010','군위장곡자연휴양림','http://janggok.gunwi.go.kr/','http://janggok.gunwi.go.kr/new/board/data/winter/1233218459_0.jpg','경북','경북 군위군 고로면 장곡리 산 1-1, 5번지','054-380-6313', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R010','군위장곡자연휴양림','http://janggok.gunwi.go.kr/','http://janggok.gunwi.go.kr/new/board/data/winter/1233218459_0.jpg','경북','경북 군위군 고로면 장곡리 산 1-1, 5번지','054-380-6313', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R011','강씨봉자연휴양림','http://farm.gg.go.kr/sigt/56','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_kang_info.jpg','경기','경기도 가평군 북면 논남기길 520(적목리 324)','(031) 8008-6611', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R011','강씨봉자연휴양림','http://farm.gg.go.kr/sigt/56','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_kang_info.jpg','경기','경기도 가평군 북면 논남기길 520(적목리 324)','(031) 8008-6611', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R012','축령산자연휴양림','http://farm.gg.go.kr/sigt/41','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_chuk_info1.jpg','경기','경기도 남양주시 수동면 축령산로299','(031) 592-0681, 8008-6690', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R012','축령산자연휴양림','http://farm.gg.go.kr/sigt/41','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_chuk_info1.jpg','경기','경기도 남양주시 수동면 축령산로299','(031) 592-0681, 8008-6690', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R013','박달재자연휴양림','http://baf.cbhuyang.go.kr/','http://baf.cbhuyang.go.kr/images/facilities/dImg/room3/img1.jpg','충북','충북 제천시 백운면 금봉로 228','(043) 652-0910', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R013','박달재자연휴양림','http://baf.cbhuyang.go.kr/','http://baf.cbhuyang.go.kr/images/facilities/dImg/room3/img1.jpg','충북','충북 제천시 백운면 금봉로 228','(043) 652-0910', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R015','남이자연휴양림','http://forestown.geumsan.go.kr/','http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg','충남','충남 금산군 남이면 느티골길 200','041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R015','남이자연휴양림','http://forestown.geumsan.go.kr/','http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg','충남','충남 금산군 남이면 느티골길 200','041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO RESORT VALUES('R017','방화동자연휴양림','http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp','http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg','전북','전북 장수군 번암면 방화동로 778','063-353-0855', now(), now());</v>
+        <v>INSERT INTO RESORT VALUES('R017','방화동자연휴양림','http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp','http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg','전북','전북 장수군 번암면 방화동로 778','063-353-0855', 'Y', now(), now());</v>
       </c>
     </row>
   </sheetData>

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectHome\workspace\honsul-inthewood-spider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12330" windowHeight="9615"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="17130" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="휴양림" sheetId="1" r:id="rId1"/>
     <sheet name="숙박시설" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,13 +531,38 @@
   </si>
   <si>
     <t>063-353-0855</t>
+  </si>
+  <si>
+    <t>R018</t>
+  </si>
+  <si>
+    <t>http://forest.ganghwa.go.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석모도 자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.ganghwa.go.kr/img/sub/house.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 강화군 삼산면 삼산서로 39-75 (417-913)</t>
+  </si>
+  <si>
+    <t>032-932-1100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +619,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -645,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,6 +716,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -749,7 +784,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,7 +819,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,21 +996,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
@@ -986,7 +1021,7 @@
     <col min="7" max="7" width="34.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1071,7 @@
         <v>INSERT INTO RESORT VALUES('R001','좌구산자연휴양림','http://jwagu.jp.go.kr/','http://jwagu.jp.go.kr/jwagusan.do?cmd=gallery.galleryImgView&amp;imgSrc=http://jwagu.jp.go.kr/upload/p1bo9a5mb31ink7aj1tpu10mg1pje4','충북','충북 증평군 증평읍 솟점말길 107','043-835-4551~3 (좌구산자연휴양림)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1098,7 @@
         <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1090,7 +1125,7 @@
         <v>INSERT INTO RESORT VALUES('R003','광치자연휴양림','https://www.kwangchi.or.kr:451/','https://www.kwangchi.or.kr:451/board/files/inno_6/test_img5.jpg','강원','강원도 양구군 남면 광치령로1794번길 265 ','대표전화 (033) 482-3115', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1152,7 @@
         <v>INSERT INTO RESORT VALUES('R004','문성자연휴양림','http://msf.cj100.net/','http://msf.cj100.net/board/files/inno_6/IMG_6605.JPG','충북','충청북도 충주시 노은면 우성1길 191','043-870-7911~7914 (휴양림관리사무소)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>INSERT INTO RESORT VALUES('R005','봉황자연휴양림','http://bhf.cj100.net/main.asp','http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%82%B0%EC%B1%85%EB%A1%9C.jpg','충북','충청북도 충주시 중앙탑면 수룡봉황길 540','043-870-7920~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +1206,7 @@
         <v>INSERT INTO RESORT VALUES('R006','계명산자연휴양림','http://gmf.cjfmc.or.kr/main.asp','http://gmf.cjfmc.or.kr/board/files/inno_5/DSC00298.jpg','충북','충청북도 충주시 충주호수로 1170','043-870-7930~2 / 휴양림관리사무소', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1198,7 +1233,7 @@
         <v>INSERT INTO RESORT VALUES('R007','가리산자연휴양림','http://www.garisan.kr/','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424650&amp;fileSn=1&amp;thumbYn=Y','강원','강원도 홍천군 두촌면 가리산길 426 (천현리 산134-1) 홍천군유림','033-435-6034', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1225,7 +1260,7 @@
         <v>INSERT INTO RESORT VALUES('R008','봉수산자연휴양림','http://www.bongsoosan.com','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424680&amp;fileSn=2&amp;thumbYn=Y','충남','충청남도 예산군 대흥면 임존성길153 (상중리 470-3)','(041) 339-8936~8', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1287,7 @@
         <v>INSERT INTO RESORT VALUES('R009','구재봉자연휴양림','http://hadongforest.co.kr/','http://hadongforest.co.kr/files/2016/05/19/8a203687e0e42cf69d6e795007c2aa15144108.jpg','경남','경상남도 하동군 적량면 중서길 60-81','070)8855-8011~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1279,7 +1314,7 @@
         <v>INSERT INTO RESORT VALUES('R010','군위장곡자연휴양림','http://janggok.gunwi.go.kr/','http://janggok.gunwi.go.kr/new/board/data/winter/1233218459_0.jpg','경북','경북 군위군 고로면 장곡리 산 1-1, 5번지','054-380-6313', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1306,7 +1341,7 @@
         <v>INSERT INTO RESORT VALUES('R011','강씨봉자연휴양림','http://farm.gg.go.kr/sigt/56','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_kang_info.jpg','경기','경기도 가평군 북면 논남기길 520(적목리 324)','(031) 8008-6611', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1333,7 +1368,7 @@
         <v>INSERT INTO RESORT VALUES('R012','축령산자연휴양림','http://farm.gg.go.kr/sigt/41','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_chuk_info1.jpg','경기','경기도 남양주시 수동면 축령산로299','(031) 592-0681, 8008-6690', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1360,7 +1395,7 @@
         <v>INSERT INTO RESORT VALUES('R013','박달재자연휴양림','http://baf.cbhuyang.go.kr/','http://baf.cbhuyang.go.kr/images/facilities/dImg/room3/img1.jpg','충북','충북 제천시 백운면 금봉로 228','(043) 652-0910', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1387,7 +1422,7 @@
         <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="33">
       <c r="A16" s="4" t="s">
         <v>132</v>
       </c>
@@ -1414,7 +1449,7 @@
         <v>INSERT INTO RESORT VALUES('R015','남이자연휴양림','http://forestown.geumsan.go.kr/','http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg','충남','충남 금산군 남이면 느티골길 200','041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>133</v>
       </c>
@@ -1441,7 +1476,7 @@
         <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="33">
       <c r="A18" s="4" t="s">
         <v>145</v>
       </c>
@@ -1466,6 +1501,29 @@
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R017','방화동자연휴양림','http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp','http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg','전북','전북 장수군 번암면 방화동로 778','063-353-0855', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="33">
+      <c r="A19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1486,26 +1544,28 @@
     <hyperlink ref="C16" r:id="rId13"/>
     <hyperlink ref="D16" r:id="rId14"/>
     <hyperlink ref="C18" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="D19" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -1531,7 +1591,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1557,7 +1617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="D3" t="s">
         <v>107</v>
       </c>
@@ -1574,7 +1634,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="D4" t="s">
         <v>108</v>
       </c>
@@ -1591,7 +1651,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="D5" s="8" t="s">
         <v>113</v>
       </c>
@@ -1608,7 +1668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="D6" s="8" t="s">
         <v>131</v>
       </c>
@@ -1625,7 +1685,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="D7" s="8" t="s">
         <v>127</v>
       </c>
@@ -1647,7 +1707,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="D8" s="8" t="s">
         <v>128</v>
       </c>
@@ -1669,7 +1729,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="D9" s="8" t="s">
         <v>129</v>
       </c>
@@ -1691,7 +1751,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="D10" s="8" t="s">
         <v>130</v>
       </c>
@@ -1708,7 +1768,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="J14" s="8" t="s">
         <v>113</v>
       </c>
@@ -1732,7 +1792,7 @@
       </c>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="J15" s="8" t="s">
         <v>126</v>
       </c>
@@ -1750,7 +1810,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="J16" s="8" t="s">
         <v>127</v>
       </c>
@@ -1766,7 +1826,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:17">
       <c r="J17" s="8" t="s">
         <v>128</v>
       </c>
@@ -1782,7 +1842,7 @@
       </c>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:17">
       <c r="J18" s="8" t="s">
         <v>129</v>
       </c>
@@ -1794,7 +1854,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:17">
       <c r="J19" s="8" t="s">
         <v>130</v>
       </c>

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -11,7 +11,6 @@
     <sheet name="숙박시설" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="173">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,10 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>석모도 자연휴양림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://forest.ganghwa.go.kr/img/sub/house.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,6 +551,63 @@
   </si>
   <si>
     <t>032-932-1100</t>
+  </si>
+  <si>
+    <t>R019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천숲자연휴양림</t>
+  </si>
+  <si>
+    <t>석모도자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용문산자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.swijapark.com/contents/swi3_photo2/swiphoto_002.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 양평군 양평읍 약수사길 78-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031-775-4005</t>
+  </si>
+  <si>
+    <t>https://www.ypforest.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccforest.or.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccforest.or.kr/img/p1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 춘천시 동산면 종자리로 224-104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>033-264-1156(재단법인 숲 아다지오)</t>
   </si>
 </sst>
 </file>
@@ -714,14 +766,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -996,7 +1048,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1004,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:G19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1508,22 +1560,68 @@
         <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="9" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="33">
+      <c r="A20" s="4" t="s">
         <v>158</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1546,9 +1644,13 @@
     <hyperlink ref="C18" r:id="rId15"/>
     <hyperlink ref="C19" r:id="rId16"/>
     <hyperlink ref="D19" r:id="rId17"/>
+    <hyperlink ref="D20" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="D21" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -1702,10 +1804,10 @@
         <v>117</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="13"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:17">
       <c r="D8" s="8" t="s">
@@ -1724,10 +1826,10 @@
         <v>117</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="13"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:17">
       <c r="D9" s="8" t="s">
@@ -1746,10 +1848,10 @@
         <v>117</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="13"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:17">
       <c r="D10" s="8" t="s">

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="180">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,6 +608,32 @@
   </si>
   <si>
     <t>033-264-1156(재단법인 숲 아다지오)</t>
+  </si>
+  <si>
+    <t>R021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://member.nfcf.or.kr/chiak/images/contents/img_fct0203_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 원주시 판부면 휴양림길 66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>033-762-8288</t>
+  </si>
+  <si>
+    <t>치악산자연휴양림</t>
+  </si>
+  <si>
+    <t>http://www.chiakforest.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1056,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1622,6 +1648,29 @@
       </c>
       <c r="G21" s="9" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33">
+      <c r="A22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1648,9 +1697,11 @@
     <hyperlink ref="C20" r:id="rId19"/>
     <hyperlink ref="C21" r:id="rId20"/>
     <hyperlink ref="D21" r:id="rId21"/>
+    <hyperlink ref="D22" r:id="rId22"/>
+    <hyperlink ref="C22" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="187">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,6 +634,31 @@
   <si>
     <t>http://www.chiakforest.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안면도자연휴양림</t>
+  </si>
+  <si>
+    <t>https://www.anmyonhuyang.go.kr:453/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.anmyonhuyang.go.kr:453/board/files/inno_4/20160906_094910%20%ED%99%94%EB%AA%A9%EB%8F%99%20%EC%A0%84%EA%B2%BD.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남 태안군 안면읍 안면대로 3195-6</t>
+  </si>
+  <si>
+    <t>041-674-5019, 670-2452</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1099,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1082,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D23" sqref="D23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1671,6 +1696,29 @@
       </c>
       <c r="G22" s="9" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="66">
+      <c r="A23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1699,9 +1747,11 @@
     <hyperlink ref="D21" r:id="rId21"/>
     <hyperlink ref="D22" r:id="rId22"/>
     <hyperlink ref="C22" r:id="rId23"/>
+    <hyperlink ref="C23" r:id="rId24"/>
+    <hyperlink ref="D23" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="194">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,31 @@
   </si>
   <si>
     <t>041-674-5019, 670-2452</t>
+  </si>
+  <si>
+    <t>R023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바라산 자연휴양림</t>
+  </si>
+  <si>
+    <t>http://barasan.uw21.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://barasan.uw21.net/images/content/facil/img_forest02.jpg</t>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 의왕시 북골안길 96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031-345-3842</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1107,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:G23"/>
+      <selection activeCell="D24" sqref="D24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1719,6 +1744,29 @@
       </c>
       <c r="G23" s="9" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="33">
+      <c r="A24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1749,9 +1797,10 @@
     <hyperlink ref="C22" r:id="rId23"/>
     <hyperlink ref="C23" r:id="rId24"/>
     <hyperlink ref="D23" r:id="rId25"/>
+    <hyperlink ref="C24" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="201">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,33 @@
   </si>
   <si>
     <t>031-345-3842</t>
+  </si>
+  <si>
+    <t>망경대산자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mgds.kr:454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mgds.kr:454/images/facilities/gallery1/dImg/room0/img0.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 영월군 중동면 선도우길 177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>033-375-8765</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1132,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:G24"/>
+      <selection activeCell="D25" sqref="D25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1767,6 +1794,29 @@
       </c>
       <c r="G24" s="9" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="33">
+      <c r="A25" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1798,9 +1848,11 @@
     <hyperlink ref="C23" r:id="rId24"/>
     <hyperlink ref="D23" r:id="rId25"/>
     <hyperlink ref="C24" r:id="rId26"/>
+    <hyperlink ref="C25" r:id="rId27"/>
+    <hyperlink ref="D25" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="215">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,9 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바라산 자연휴양림</t>
-  </si>
-  <si>
     <t>http://barasan.uw21.net/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,6 +708,61 @@
   </si>
   <si>
     <t>033-375-8765</t>
+  </si>
+  <si>
+    <t>R026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가학산자연휴양림</t>
+  </si>
+  <si>
+    <t>http://gahak.haenam.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와룡자연휴양림</t>
+  </si>
+  <si>
+    <t>http://www.jangsuhuyang.kr/Waryong/reserve/list.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jangsuhuyang.kr/Waryong/img/facility/ab_overview_primg03.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북 장수군 천천면 비룡로 632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>063-353-1404</t>
+  </si>
+  <si>
+    <t>http://gahak.haenam.go.kr/images/gahak/contents/fac_02_000_3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남 해남군 계곡면 산골길 306</t>
+  </si>
+  <si>
+    <t>061-535-4812</t>
+  </si>
+  <si>
+    <t>바라산자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1159,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:G25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1778,45 +1830,91 @@
         <v>187</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33">
       <c r="A25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="33">
+      <c r="A26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="E26" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="9" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="33">
+      <c r="A27" s="4" t="s">
         <v>200</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1848,11 +1946,15 @@
     <hyperlink ref="C23" r:id="rId24"/>
     <hyperlink ref="D23" r:id="rId25"/>
     <hyperlink ref="C24" r:id="rId26"/>
-    <hyperlink ref="C25" r:id="rId27"/>
-    <hyperlink ref="D25" r:id="rId28"/>
+    <hyperlink ref="C26" r:id="rId27"/>
+    <hyperlink ref="D26" r:id="rId28"/>
+    <hyperlink ref="C27" r:id="rId29"/>
+    <hyperlink ref="C25" r:id="rId30"/>
+    <hyperlink ref="D25" r:id="rId31"/>
+    <hyperlink ref="D27" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId33"/>
 </worksheet>
 </file>
 

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="222">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,6 +763,31 @@
   <si>
     <t>바라산자연휴양림</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송이밸리자연휴양림</t>
+  </si>
+  <si>
+    <t>http://www.songivalley.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.songivalley.co.kr:454/images/utilization/siteplan3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 양양군 양양읍 남대천로 107-61</t>
+  </si>
+  <si>
+    <t>033-670-8765</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1228,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1211,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1915,6 +1940,29 @@
       </c>
       <c r="G27" s="9" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="33">
+      <c r="A28" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1952,9 +2000,11 @@
     <hyperlink ref="C25" r:id="rId30"/>
     <hyperlink ref="D25" r:id="rId31"/>
     <hyperlink ref="D27" r:id="rId32"/>
+    <hyperlink ref="C28" r:id="rId33"/>
+    <hyperlink ref="D28" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId35"/>
 </worksheet>
 </file>
 

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectHome\workspace\honsul-inthewood-spider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2640" windowWidth="17130" windowHeight="9975"/>
   </bookViews>
@@ -10,9 +15,9 @@
     <sheet name="휴양림" sheetId="1" r:id="rId1"/>
     <sheet name="숙박시설" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -793,8 +798,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,21 +1233,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:G28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
@@ -1253,7 +1258,7 @@
     <col min="7" max="7" width="34.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1303,7 +1308,7 @@
         <v>INSERT INTO RESORT VALUES('R001','좌구산자연휴양림','http://jwagu.jp.go.kr/','http://jwagu.jp.go.kr/jwagusan.do?cmd=gallery.galleryImgView&amp;imgSrc=http://jwagu.jp.go.kr/upload/p1bo9a5mb31ink7aj1tpu10mg1pje4','충북','충북 증평군 증평읍 솟점말길 107','043-835-4551~3 (좌구산자연휴양림)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1326,11 +1331,11 @@
         <v>42</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H18" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', 'Y', now(), now());"</f>
+        <f t="shared" ref="H3:H28" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', 'Y', now(), now());"</f>
         <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1357,7 +1362,7 @@
         <v>INSERT INTO RESORT VALUES('R003','광치자연휴양림','https://www.kwangchi.or.kr:451/','https://www.kwangchi.or.kr:451/board/files/inno_6/test_img5.jpg','강원','강원도 양구군 남면 광치령로1794번길 265 ','대표전화 (033) 482-3115', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>INSERT INTO RESORT VALUES('R004','문성자연휴양림','http://msf.cj100.net/','http://msf.cj100.net/board/files/inno_6/IMG_6605.JPG','충북','충청북도 충주시 노은면 우성1길 191','043-870-7911~7914 (휴양림관리사무소)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1411,7 +1416,7 @@
         <v>INSERT INTO RESORT VALUES('R005','봉황자연휴양림','http://bhf.cj100.net/main.asp','http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%82%B0%EC%B1%85%EB%A1%9C.jpg','충북','충청북도 충주시 중앙탑면 수룡봉황길 540','043-870-7920~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>INSERT INTO RESORT VALUES('R006','계명산자연휴양림','http://gmf.cjfmc.or.kr/main.asp','http://gmf.cjfmc.or.kr/board/files/inno_5/DSC00298.jpg','충북','충청북도 충주시 충주호수로 1170','043-870-7930~2 / 휴양림관리사무소', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>INSERT INTO RESORT VALUES('R007','가리산자연휴양림','http://www.garisan.kr/','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424650&amp;fileSn=1&amp;thumbYn=Y','강원','강원도 홍천군 두촌면 가리산길 426 (천현리 산134-1) 홍천군유림','033-435-6034', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1492,7 +1497,7 @@
         <v>INSERT INTO RESORT VALUES('R008','봉수산자연휴양림','http://www.bongsoosan.com','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424680&amp;fileSn=2&amp;thumbYn=Y','충남','충청남도 예산군 대흥면 임존성길153 (상중리 470-3)','(041) 339-8936~8', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>INSERT INTO RESORT VALUES('R009','구재봉자연휴양림','http://hadongforest.co.kr/','http://hadongforest.co.kr/files/2016/05/19/8a203687e0e42cf69d6e795007c2aa15144108.jpg','경남','경상남도 하동군 적량면 중서길 60-81','070)8855-8011~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>INSERT INTO RESORT VALUES('R010','군위장곡자연휴양림','http://janggok.gunwi.go.kr/','http://janggok.gunwi.go.kr/new/board/data/winter/1233218459_0.jpg','경북','경북 군위군 고로면 장곡리 산 1-1, 5번지','054-380-6313', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1573,7 +1578,7 @@
         <v>INSERT INTO RESORT VALUES('R011','강씨봉자연휴양림','http://farm.gg.go.kr/sigt/56','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_kang_info.jpg','경기','경기도 가평군 북면 논남기길 520(적목리 324)','(031) 8008-6611', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>INSERT INTO RESORT VALUES('R012','축령산자연휴양림','http://farm.gg.go.kr/sigt/41','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_chuk_info1.jpg','경기','경기도 남양주시 수동면 축령산로299','(031) 592-0681, 8008-6690', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1627,7 +1632,7 @@
         <v>INSERT INTO RESORT VALUES('R013','박달재자연휴양림','http://baf.cbhuyang.go.kr/','http://baf.cbhuyang.go.kr/images/facilities/dImg/room3/img1.jpg','충북','충북 제천시 백운면 금봉로 228','(043) 652-0910', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +1659,7 @@
         <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33">
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>132</v>
       </c>
@@ -1681,7 +1686,7 @@
         <v>INSERT INTO RESORT VALUES('R015','남이자연휴양림','http://forestown.geumsan.go.kr/','http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg','충남','충남 금산군 남이면 느티골길 200','041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>133</v>
       </c>
@@ -1708,7 +1713,7 @@
         <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33">
+    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>145</v>
       </c>
@@ -1735,7 +1740,7 @@
         <v>INSERT INTO RESORT VALUES('R017','방화동자연휴양림','http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp','http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg','전북','전북 장수군 번암면 방화동로 778','063-353-0855', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33">
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -1757,8 +1762,12 @@
       <c r="G19" s="9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="33">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R018','석모도자연휴양림','http://forest.ganghwa.go.kr','http://forest.ganghwa.go.kr/img/sub/house.jpg','인천','인천광역시 강화군 삼산면 삼산서로 39-75 (417-913)','032-932-1100', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>158</v>
       </c>
@@ -1780,8 +1789,12 @@
       <c r="G20" s="9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R019','용문산자연휴양림','https://www.ypforest.com/','https://www.swijapark.com/contents/swi3_photo2/swiphoto_002.jpg','경기','경기도 양평군 양평읍 약수사길 78-14','031-775-4005', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>159</v>
       </c>
@@ -1803,8 +1816,12 @@
       <c r="G21" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="33">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R020','춘천숲자연휴양림','http://www.ccforest.or.kr/','http://www.ccforest.or.kr/img/p1.jpg','강원','강원도 춘천시 동산면 종자리로 224-104','033-264-1156(재단법인 숲 아다지오)', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>173</v>
       </c>
@@ -1826,8 +1843,12 @@
       <c r="G22" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="66">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R021','치악산자연휴양림','http://www.chiakforest.com/','http://member.nfcf.or.kr/chiak/images/contents/img_fct0203_01.jpg','강원','강원도 원주시 판부면 휴양림길 66','033-762-8288', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>180</v>
       </c>
@@ -1849,8 +1870,12 @@
       <c r="G23" s="9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="33">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R022','안면도자연휴양림','https://www.anmyonhuyang.go.kr:453/','https://www.anmyonhuyang.go.kr:453/board/files/inno_4/20160906_094910%20%ED%99%94%EB%AA%A9%EB%8F%99%20%EC%A0%84%EA%B2%BD.jpg','충남','충남 태안군 안면읍 안면대로 3195-6','041-674-5019, 670-2452', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>187</v>
       </c>
@@ -1872,8 +1897,12 @@
       <c r="G24" s="9" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="33">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R023','바라산자연휴양림','http://barasan.uw21.net/','http://barasan.uw21.net/images/content/facil/img_forest02.jpg','경기','경기도 의왕시 북골안길 96','031-345-3842', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>203</v>
       </c>
@@ -1895,8 +1924,12 @@
       <c r="G25" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="33">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R024','와룡자연휴양림','http://www.jangsuhuyang.kr/Waryong/reserve/list.asp','http://www.jangsuhuyang.kr/Waryong/img/facility/ab_overview_primg03.jpg','전북','전북 장수군 천천면 비룡로 632','063-353-1404', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>195</v>
       </c>
@@ -1918,8 +1951,12 @@
       <c r="G26" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="33">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R025','망경대산자연휴양림','https://www.mgds.kr:454','https://www.mgds.kr:454/images/facilities/gallery1/dImg/room0/img0.jpg','강원','강원도 영월군 중동면 선도우길 177','033-375-8765', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>200</v>
       </c>
@@ -1941,8 +1978,12 @@
       <c r="G27" s="9" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="33">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R026','가학산자연휴양림','http://gahak.haenam.go.kr/','http://gahak.haenam.go.kr/images/gahak/contents/fac_02_000_3.jpg','전남','전남 해남군 계곡면 산골길 306','061-535-4812', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>215</v>
       </c>
@@ -1963,6 +2004,10 @@
       </c>
       <c r="G28" s="9" t="s">
         <v>221</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R027','송이밸리자연휴양림','http://www.songivalley.co.kr/','https://www.songivalley.co.kr:454/images/utilization/siteplan3.jpg','강원','강원도 양양군 양양읍 남대천로 107-61','033-670-8765', 'Y', now(), now());</v>
       </c>
     </row>
   </sheetData>
@@ -2009,19 +2054,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -2047,7 +2092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -2073,7 +2118,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>107</v>
       </c>
@@ -2090,7 +2135,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>108</v>
       </c>
@@ -2107,7 +2152,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D5" s="8" t="s">
         <v>113</v>
       </c>
@@ -2124,7 +2169,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D6" s="8" t="s">
         <v>131</v>
       </c>
@@ -2141,7 +2186,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D7" s="8" t="s">
         <v>127</v>
       </c>
@@ -2163,7 +2208,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D8" s="8" t="s">
         <v>128</v>
       </c>
@@ -2185,7 +2230,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D9" s="8" t="s">
         <v>129</v>
       </c>
@@ -2207,7 +2252,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D10" s="8" t="s">
         <v>130</v>
       </c>
@@ -2224,7 +2269,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J14" s="8" t="s">
         <v>113</v>
       </c>
@@ -2248,7 +2293,7 @@
       </c>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J15" s="8" t="s">
         <v>126</v>
       </c>
@@ -2266,7 +2311,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J16" s="8" t="s">
         <v>127</v>
       </c>
@@ -2282,7 +2327,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="10:17">
+    <row r="17" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J17" s="8" t="s">
         <v>128</v>
       </c>
@@ -2298,7 +2343,7 @@
       </c>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="10:17">
+    <row r="18" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J18" s="8" t="s">
         <v>129</v>
       </c>
@@ -2310,7 +2355,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="10:17">
+    <row r="19" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J19" s="8" t="s">
         <v>130</v>
       </c>

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectHome\workspace\honsul-inthewood-spider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2640" windowWidth="17130" windowHeight="9975"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="휴양림" sheetId="1" r:id="rId1"/>
     <sheet name="숙박시설" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="229">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,13 +788,38 @@
   </si>
   <si>
     <t>033-670-8765</t>
+  </si>
+  <si>
+    <t>R028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평창자연휴양림</t>
+  </si>
+  <si>
+    <t>https://forest700.or.kr:10462/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forest700.or.kr:10462/data/file/comm2/thumb-599170908_nDOfVxZJ_03_670x447.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 평창군 봉평면 팔송로 285</t>
+  </si>
+  <si>
+    <t>033-333-0701</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1233,21 +1253,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
@@ -1258,7 +1278,7 @@
     <col min="7" max="7" width="34.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1308,7 +1328,7 @@
         <v>INSERT INTO RESORT VALUES('R001','좌구산자연휴양림','http://jwagu.jp.go.kr/','http://jwagu.jp.go.kr/jwagusan.do?cmd=gallery.galleryImgView&amp;imgSrc=http://jwagu.jp.go.kr/upload/p1bo9a5mb31ink7aj1tpu10mg1pje4','충북','충북 증평군 증평읍 솟점말길 107','043-835-4551~3 (좌구산자연휴양림)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1355,7 @@
         <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +1382,7 @@
         <v>INSERT INTO RESORT VALUES('R003','광치자연휴양림','https://www.kwangchi.or.kr:451/','https://www.kwangchi.or.kr:451/board/files/inno_6/test_img5.jpg','강원','강원도 양구군 남면 광치령로1794번길 265 ','대표전화 (033) 482-3115', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1409,7 @@
         <v>INSERT INTO RESORT VALUES('R004','문성자연휴양림','http://msf.cj100.net/','http://msf.cj100.net/board/files/inno_6/IMG_6605.JPG','충북','충청북도 충주시 노은면 우성1길 191','043-870-7911~7914 (휴양림관리사무소)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1416,7 +1436,7 @@
         <v>INSERT INTO RESORT VALUES('R005','봉황자연휴양림','http://bhf.cj100.net/main.asp','http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%82%B0%EC%B1%85%EB%A1%9C.jpg','충북','충청북도 충주시 중앙탑면 수룡봉황길 540','043-870-7920~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1443,7 +1463,7 @@
         <v>INSERT INTO RESORT VALUES('R006','계명산자연휴양림','http://gmf.cjfmc.or.kr/main.asp','http://gmf.cjfmc.or.kr/board/files/inno_5/DSC00298.jpg','충북','충청북도 충주시 충주호수로 1170','043-870-7930~2 / 휴양림관리사무소', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1470,7 +1490,7 @@
         <v>INSERT INTO RESORT VALUES('R007','가리산자연휴양림','http://www.garisan.kr/','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424650&amp;fileSn=1&amp;thumbYn=Y','강원','강원도 홍천군 두촌면 가리산길 426 (천현리 산134-1) 홍천군유림','033-435-6034', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1517,7 @@
         <v>INSERT INTO RESORT VALUES('R008','봉수산자연휴양림','http://www.bongsoosan.com','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424680&amp;fileSn=2&amp;thumbYn=Y','충남','충청남도 예산군 대흥면 임존성길153 (상중리 470-3)','(041) 339-8936~8', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1524,7 +1544,7 @@
         <v>INSERT INTO RESORT VALUES('R009','구재봉자연휴양림','http://hadongforest.co.kr/','http://hadongforest.co.kr/files/2016/05/19/8a203687e0e42cf69d6e795007c2aa15144108.jpg','경남','경상남도 하동군 적량면 중서길 60-81','070)8855-8011~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1551,7 +1571,7 @@
         <v>INSERT INTO RESORT VALUES('R010','군위장곡자연휴양림','http://janggok.gunwi.go.kr/','http://janggok.gunwi.go.kr/new/board/data/winter/1233218459_0.jpg','경북','경북 군위군 고로면 장곡리 산 1-1, 5번지','054-380-6313', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1578,7 +1598,7 @@
         <v>INSERT INTO RESORT VALUES('R011','강씨봉자연휴양림','http://farm.gg.go.kr/sigt/56','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_kang_info.jpg','경기','경기도 가평군 북면 논남기길 520(적목리 324)','(031) 8008-6611', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1605,7 +1625,7 @@
         <v>INSERT INTO RESORT VALUES('R012','축령산자연휴양림','http://farm.gg.go.kr/sigt/41','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_chuk_info1.jpg','경기','경기도 남양주시 수동면 축령산로299','(031) 592-0681, 8008-6690', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1632,7 +1652,7 @@
         <v>INSERT INTO RESORT VALUES('R013','박달재자연휴양림','http://baf.cbhuyang.go.kr/','http://baf.cbhuyang.go.kr/images/facilities/dImg/room3/img1.jpg','충북','충북 제천시 백운면 금봉로 228','(043) 652-0910', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1659,7 +1679,7 @@
         <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="33">
       <c r="A16" s="4" t="s">
         <v>132</v>
       </c>
@@ -1686,7 +1706,7 @@
         <v>INSERT INTO RESORT VALUES('R015','남이자연휴양림','http://forestown.geumsan.go.kr/','http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg','충남','충남 금산군 남이면 느티골길 200','041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>133</v>
       </c>
@@ -1713,7 +1733,7 @@
         <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="33">
       <c r="A18" s="4" t="s">
         <v>145</v>
       </c>
@@ -1740,7 +1760,7 @@
         <v>INSERT INTO RESORT VALUES('R017','방화동자연휴양림','http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp','http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg','전북','전북 장수군 번암면 방화동로 778','063-353-0855', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="33">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -1767,7 +1787,7 @@
         <v>INSERT INTO RESORT VALUES('R018','석모도자연휴양림','http://forest.ganghwa.go.kr','http://forest.ganghwa.go.kr/img/sub/house.jpg','인천','인천광역시 강화군 삼산면 삼산서로 39-75 (417-913)','032-932-1100', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="33">
       <c r="A20" s="4" t="s">
         <v>158</v>
       </c>
@@ -1794,7 +1814,7 @@
         <v>INSERT INTO RESORT VALUES('R019','용문산자연휴양림','https://www.ypforest.com/','https://www.swijapark.com/contents/swi3_photo2/swiphoto_002.jpg','경기','경기도 양평군 양평읍 약수사길 78-14','031-775-4005', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>159</v>
       </c>
@@ -1821,7 +1841,7 @@
         <v>INSERT INTO RESORT VALUES('R020','춘천숲자연휴양림','http://www.ccforest.or.kr/','http://www.ccforest.or.kr/img/p1.jpg','강원','강원도 춘천시 동산면 종자리로 224-104','033-264-1156(재단법인 숲 아다지오)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="33">
       <c r="A22" s="4" t="s">
         <v>173</v>
       </c>
@@ -1848,7 +1868,7 @@
         <v>INSERT INTO RESORT VALUES('R021','치악산자연휴양림','http://www.chiakforest.com/','http://member.nfcf.or.kr/chiak/images/contents/img_fct0203_01.jpg','강원','강원도 원주시 판부면 휴양림길 66','033-762-8288', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="66">
       <c r="A23" s="4" t="s">
         <v>180</v>
       </c>
@@ -1875,7 +1895,7 @@
         <v>INSERT INTO RESORT VALUES('R022','안면도자연휴양림','https://www.anmyonhuyang.go.kr:453/','https://www.anmyonhuyang.go.kr:453/board/files/inno_4/20160906_094910%20%ED%99%94%EB%AA%A9%EB%8F%99%20%EC%A0%84%EA%B2%BD.jpg','충남','충남 태안군 안면읍 안면대로 3195-6','041-674-5019, 670-2452', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="33">
       <c r="A24" s="4" t="s">
         <v>187</v>
       </c>
@@ -1902,7 +1922,7 @@
         <v>INSERT INTO RESORT VALUES('R023','바라산자연휴양림','http://barasan.uw21.net/','http://barasan.uw21.net/images/content/facil/img_forest02.jpg','경기','경기도 의왕시 북골안길 96','031-345-3842', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="33">
       <c r="A25" s="4" t="s">
         <v>203</v>
       </c>
@@ -1929,7 +1949,7 @@
         <v>INSERT INTO RESORT VALUES('R024','와룡자연휴양림','http://www.jangsuhuyang.kr/Waryong/reserve/list.asp','http://www.jangsuhuyang.kr/Waryong/img/facility/ab_overview_primg03.jpg','전북','전북 장수군 천천면 비룡로 632','063-353-1404', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="33">
       <c r="A26" s="4" t="s">
         <v>195</v>
       </c>
@@ -1956,7 +1976,7 @@
         <v>INSERT INTO RESORT VALUES('R025','망경대산자연휴양림','https://www.mgds.kr:454','https://www.mgds.kr:454/images/facilities/gallery1/dImg/room0/img0.jpg','강원','강원도 영월군 중동면 선도우길 177','033-375-8765', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="33">
       <c r="A27" s="4" t="s">
         <v>200</v>
       </c>
@@ -1983,7 +2003,7 @@
         <v>INSERT INTO RESORT VALUES('R026','가학산자연휴양림','http://gahak.haenam.go.kr/','http://gahak.haenam.go.kr/images/gahak/contents/fac_02_000_3.jpg','전남','전남 해남군 계곡면 산골길 306','061-535-4812', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="33">
       <c r="A28" s="4" t="s">
         <v>215</v>
       </c>
@@ -2008,6 +2028,29 @@
       <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R027','송이밸리자연휴양림','http://www.songivalley.co.kr/','https://www.songivalley.co.kr:454/images/utilization/siteplan3.jpg','강원','강원도 양양군 양양읍 남대천로 107-61','033-670-8765', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="49.5">
+      <c r="A29" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2047,26 +2090,28 @@
     <hyperlink ref="D27" r:id="rId32"/>
     <hyperlink ref="C28" r:id="rId33"/>
     <hyperlink ref="D28" r:id="rId34"/>
+    <hyperlink ref="C29" r:id="rId35"/>
+    <hyperlink ref="D29" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -2092,7 +2137,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -2118,7 +2163,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="D3" t="s">
         <v>107</v>
       </c>
@@ -2135,7 +2180,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="D4" t="s">
         <v>108</v>
       </c>
@@ -2152,7 +2197,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="D5" s="8" t="s">
         <v>113</v>
       </c>
@@ -2169,7 +2214,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="D6" s="8" t="s">
         <v>131</v>
       </c>
@@ -2186,7 +2231,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="D7" s="8" t="s">
         <v>127</v>
       </c>
@@ -2208,7 +2253,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="D8" s="8" t="s">
         <v>128</v>
       </c>
@@ -2230,7 +2275,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="D9" s="8" t="s">
         <v>129</v>
       </c>
@@ -2252,7 +2297,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="D10" s="8" t="s">
         <v>130</v>
       </c>
@@ -2269,7 +2314,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="J14" s="8" t="s">
         <v>113</v>
       </c>
@@ -2293,7 +2338,7 @@
       </c>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="J15" s="8" t="s">
         <v>126</v>
       </c>
@@ -2311,7 +2356,7 @@
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="J16" s="8" t="s">
         <v>127</v>
       </c>
@@ -2327,7 +2372,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:17">
       <c r="J17" s="8" t="s">
         <v>128</v>
       </c>
@@ -2343,7 +2388,7 @@
       </c>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:17">
       <c r="J18" s="8" t="s">
         <v>129</v>
       </c>
@@ -2355,7 +2400,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:17">
       <c r="J19" s="8" t="s">
         <v>130</v>
       </c>

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="389">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,6 +793,578 @@
   </si>
   <si>
     <t>033-670-8765</t>
+  </si>
+  <si>
+    <t>N001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>N004</t>
+  </si>
+  <si>
+    <t>N005</t>
+  </si>
+  <si>
+    <t>N006</t>
+  </si>
+  <si>
+    <t>N007</t>
+  </si>
+  <si>
+    <t>N008</t>
+  </si>
+  <si>
+    <t>N009</t>
+  </si>
+  <si>
+    <t>N010</t>
+  </si>
+  <si>
+    <t>N011</t>
+  </si>
+  <si>
+    <t>N012</t>
+  </si>
+  <si>
+    <t>N013</t>
+  </si>
+  <si>
+    <t>N014</t>
+  </si>
+  <si>
+    <t>N015</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>N017</t>
+  </si>
+  <si>
+    <t>N018</t>
+  </si>
+  <si>
+    <t>N019</t>
+  </si>
+  <si>
+    <t>N020</t>
+  </si>
+  <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>N022</t>
+  </si>
+  <si>
+    <t>N023</t>
+  </si>
+  <si>
+    <t>N024</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>N026</t>
+  </si>
+  <si>
+    <t>가리왕산자연휴양림</t>
+  </si>
+  <si>
+    <t>검마산자연휴양림</t>
+  </si>
+  <si>
+    <t>검봉산자연휴양림</t>
+  </si>
+  <si>
+    <t>낙안민속자연휴양림</t>
+  </si>
+  <si>
+    <t>남해편백자연휴양림</t>
+  </si>
+  <si>
+    <t>대관령자연휴양림</t>
+  </si>
+  <si>
+    <t>대야산자연휴양림</t>
+  </si>
+  <si>
+    <t>덕유산자연휴양림</t>
+  </si>
+  <si>
+    <t>두타산자연휴양림</t>
+  </si>
+  <si>
+    <t>미천골자연휴양림</t>
+  </si>
+  <si>
+    <t>방장산자연휴양림</t>
+  </si>
+  <si>
+    <t>방태산자연휴양림</t>
+  </si>
+  <si>
+    <t>백운산자연휴양림</t>
+  </si>
+  <si>
+    <t>변산자연휴양림</t>
+  </si>
+  <si>
+    <t>복주산자연휴양림</t>
+  </si>
+  <si>
+    <t>산음자연휴양림</t>
+  </si>
+  <si>
+    <t>삼봉자연휴양림</t>
+  </si>
+  <si>
+    <t>상당산성자연휴양림</t>
+  </si>
+  <si>
+    <t>서귀포자연휴양림</t>
+  </si>
+  <si>
+    <t>붉은오름자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속리산말티재자연휴양림</t>
+  </si>
+  <si>
+    <t>신불산폭포자연휴양림</t>
+  </si>
+  <si>
+    <t>아세안자연휴양림</t>
+  </si>
+  <si>
+    <t>오서산자연휴양림</t>
+  </si>
+  <si>
+    <t>용대자연휴양림</t>
+  </si>
+  <si>
+    <t>용현자연휴양림</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://healing.seogwipo.go.kr/seoforest/layout.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://healing.seogwipo.go.kr/redforest/layout.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_12_17_20_030.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_14_11_43_420.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_28_20_20_150.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_06_17_49_310.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_17_18_18_330.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_13_11_57_000.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_08_09_11_45_290.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_21_15_28_570.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_08_28_17_43_220.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_04_23_51_340.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_08_28_17_54_100.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20110311114702_28925.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_04_05_34_240.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_10_17_46_380.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/product/2016_12_30_10_05_490.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/product/2017_05_30_19_10_470.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_17_13_38_160.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2018_01_22_11_13_400.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://healing.seogwipo.go.kr/files/editor/ba083f51-d1e3-4230-8b41-1b1fad5d8e83.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://healing.seogwipo.go.kr/files/editor/d322d3e2-6973-4684-9ddc-2e37c5ee39f5.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20110311150059_49810.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_07_15_48_190.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2018_01_08_16_05_320.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_17_17_47_430.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20091029154014_60012.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2018_01_08_16_38_160.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 정선군 정선읍 가리왕산로 707</t>
+  </si>
+  <si>
+    <t>033-562-5833</t>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도 영양군 수비면 검마산길 191</t>
+  </si>
+  <si>
+    <t>054-682-9009</t>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 삼척시 원덕읍 임원안길 525-145</t>
+  </si>
+  <si>
+    <t>033-574-2553</t>
+  </si>
+  <si>
+    <t>전라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 순천시 낙안면 민속마을길 1600번지</t>
+  </si>
+  <si>
+    <t>061-754-4400</t>
+  </si>
+  <si>
+    <t>경상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상남도 남해군 삼동면 금암로 658</t>
+  </si>
+  <si>
+    <t>055-867-7881</t>
+  </si>
+  <si>
+    <t>강원도 강릉시 성산면 삼포암길 133</t>
+  </si>
+  <si>
+    <t>033-641-9990</t>
+  </si>
+  <si>
+    <t>경상북도 문경시 가은읍 용추길 31-35</t>
+  </si>
+  <si>
+    <t>054-571-7181~2</t>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라북도 무주군 무풍면 구천동로 530-62</t>
+  </si>
+  <si>
+    <t>063-322-1097</t>
+  </si>
+  <si>
+    <t>강원도 평창군 진부면 아차골길 132</t>
+  </si>
+  <si>
+    <t>033-334-8815</t>
+  </si>
+  <si>
+    <t>강원도 양양군 서면 미천골길 115</t>
+  </si>
+  <si>
+    <t>033-673-1806</t>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 장성군 북이면 방장로 353</t>
+  </si>
+  <si>
+    <t>061-394-5523</t>
+  </si>
+  <si>
+    <t>강원도 인제군 기린면 방태산길 241</t>
+  </si>
+  <si>
+    <t>033-463-8590</t>
+  </si>
+  <si>
+    <t>강원도 원주시 판부면 백운산길81</t>
+  </si>
+  <si>
+    <t>033-766-1063</t>
+  </si>
+  <si>
+    <t>전라북도 부안군 변산면 변산로 3768</t>
+  </si>
+  <si>
+    <t>063-581-9977</t>
+  </si>
+  <si>
+    <t>강원도 철원군 근남면 하오재로 818</t>
+  </si>
+  <si>
+    <t>033-458-9426</t>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 양평군 단월면 고북길 347</t>
+  </si>
+  <si>
+    <t>031-774-8133</t>
+  </si>
+  <si>
+    <t>강원도 홍천군 내면 삼봉휴양길 276</t>
+  </si>
+  <si>
+    <t>033-435-8536</t>
+  </si>
+  <si>
+    <t>충북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도 청주시 청원구 내수읍 덕암2길 162</t>
+  </si>
+  <si>
+    <t>043-216-0052</t>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 서귀포시 대포동 산1-1번지 일원 국유림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064-738-4544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 서귀포시 표선면 남조로 1487-73(표선면 가시리 산158번지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064-760-3481~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도 보은군 장안면 속리산로 256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>043-543-6283</t>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산광역시 울주군 상북면 억새벌길 200-78</t>
+  </si>
+  <si>
+    <t>052-254-2124</t>
+  </si>
+  <si>
+    <t>경기도 양주시</t>
+  </si>
+  <si>
+    <t>031-871-2796</t>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 보령시 청라면 오서산길 531</t>
+  </si>
+  <si>
+    <t>041-936-5465,5468</t>
+  </si>
+  <si>
+    <t>강원도 인제군 북면 용대리 연화동길</t>
+  </si>
+  <si>
+    <t>033-462-5031</t>
+  </si>
+  <si>
+    <t>충청남도 서산시 운산면 마애삼존불길 339</t>
+  </si>
+  <si>
+    <t>041-664-1978</t>
   </si>
 </sst>
 </file>
@@ -850,19 +1422,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF454545"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF454545"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -911,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,38 +1501,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1241,21 +1824,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="21.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9"/>
+    <col min="6" max="6" width="31.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1282,307 +1866,307 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="10" t="str">
         <f>"INSERT INTO RESORT VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"', 'Y', now(), now());"</f>
         <v>INSERT INTO RESORT VALUES('R001','좌구산자연휴양림','http://jwagu.jp.go.kr/','http://jwagu.jp.go.kr/jwagusan.do?cmd=gallery.galleryImgView&amp;imgSrc=http://jwagu.jp.go.kr/upload/p1bo9a5mb31ink7aj1tpu10mg1pje4','충북','충북 증평군 증평읍 솟점말길 107','043-835-4551~3 (좌구산자연휴양림)', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H28" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', 'Y', now(), now());"</f>
+      <c r="H3" s="10" t="str">
+        <f t="shared" ref="H3:H54" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', 'Y', now(), now());"</f>
         <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R003','광치자연휴양림','https://www.kwangchi.or.kr:451/','https://www.kwangchi.or.kr:451/board/files/inno_6/test_img5.jpg','강원','강원도 양구군 남면 광치령로1794번길 265 ','대표전화 (033) 482-3115', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R004','문성자연휴양림','http://msf.cj100.net/','http://msf.cj100.net/board/files/inno_6/IMG_6605.JPG','충북','충청북도 충주시 노은면 우성1길 191','043-870-7911~7914 (휴양림관리사무소)', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R005','봉황자연휴양림','http://bhf.cj100.net/main.asp','http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%82%B0%EC%B1%85%EB%A1%9C.jpg','충북','충청북도 충주시 중앙탑면 수룡봉황길 540','043-870-7920~2', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R006','계명산자연휴양림','http://gmf.cjfmc.or.kr/main.asp','http://gmf.cjfmc.or.kr/board/files/inno_5/DSC00298.jpg','충북','충청북도 충주시 충주호수로 1170','043-870-7930~2 / 휴양림관리사무소', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R007','가리산자연휴양림','http://www.garisan.kr/','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424650&amp;fileSn=1&amp;thumbYn=Y','강원','강원도 홍천군 두촌면 가리산길 426 (천현리 산134-1) 홍천군유림','033-435-6034', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R008','봉수산자연휴양림','http://www.bongsoosan.com','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424680&amp;fileSn=2&amp;thumbYn=Y','충남','충청남도 예산군 대흥면 임존성길153 (상중리 470-3)','(041) 339-8936~8', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R009','구재봉자연휴양림','http://hadongforest.co.kr/','http://hadongforest.co.kr/files/2016/05/19/8a203687e0e42cf69d6e795007c2aa15144108.jpg','경남','경상남도 하동군 적량면 중서길 60-81','070)8855-8011~2', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R010','군위장곡자연휴양림','http://janggok.gunwi.go.kr/','http://janggok.gunwi.go.kr/new/board/data/winter/1233218459_0.jpg','경북','경북 군위군 고로면 장곡리 산 1-1, 5번지','054-380-6313', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R011','강씨봉자연휴양림','http://farm.gg.go.kr/sigt/56','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_kang_info.jpg','경기','경기도 가평군 북면 논남기길 520(적목리 324)','(031) 8008-6611', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1591,25 +2175,25 @@
       <c r="D13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R012','축령산자연휴양림','http://farm.gg.go.kr/sigt/41','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_chuk_info1.jpg','경기','경기도 남양주시 수동면 축령산로299','(031) 592-0681, 8008-6690', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1618,25 +2202,25 @@
       <c r="D14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R013','박달재자연휴양림','http://baf.cbhuyang.go.kr/','http://baf.cbhuyang.go.kr/images/facilities/dImg/room3/img1.jpg','충북','충북 제천시 백운면 금봉로 228','(043) 652-0910', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1645,369 +2229,1071 @@
       <c r="D15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R015','남이자연휴양림','http://forestown.geumsan.go.kr/','http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg','충남','충남 금산군 남이면 느티골길 200','041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R017','방화동자연휴양림','http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp','http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg','전북','전북 장수군 번암면 방화동로 778','063-353-0855', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R018','석모도자연휴양림','http://forest.ganghwa.go.kr','http://forest.ganghwa.go.kr/img/sub/house.jpg','인천','인천광역시 강화군 삼산면 삼산서로 39-75 (417-913)','032-932-1100', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R019','용문산자연휴양림','https://www.ypforest.com/','https://www.swijapark.com/contents/swi3_photo2/swiphoto_002.jpg','경기','경기도 양평군 양평읍 약수사길 78-14','031-775-4005', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R020','춘천숲자연휴양림','http://www.ccforest.or.kr/','http://www.ccforest.or.kr/img/p1.jpg','강원','강원도 춘천시 동산면 종자리로 224-104','033-264-1156(재단법인 숲 아다지오)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R021','치악산자연휴양림','http://www.chiakforest.com/','http://member.nfcf.or.kr/chiak/images/contents/img_fct0203_01.jpg','강원','강원도 원주시 판부면 휴양림길 66','033-762-8288', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R022','안면도자연휴양림','https://www.anmyonhuyang.go.kr:453/','https://www.anmyonhuyang.go.kr:453/board/files/inno_4/20160906_094910%20%ED%99%94%EB%AA%A9%EB%8F%99%20%EC%A0%84%EA%B2%BD.jpg','충남','충남 태안군 안면읍 안면대로 3195-6','041-674-5019, 670-2452', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R023','바라산자연휴양림','http://barasan.uw21.net/','http://barasan.uw21.net/images/content/facil/img_forest02.jpg','경기','경기도 의왕시 북골안길 96','031-345-3842', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R024','와룡자연휴양림','http://www.jangsuhuyang.kr/Waryong/reserve/list.asp','http://www.jangsuhuyang.kr/Waryong/img/facility/ab_overview_primg03.jpg','전북','전북 장수군 천천면 비룡로 632','063-353-1404', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R025','망경대산자연휴양림','https://www.mgds.kr:454','https://www.mgds.kr:454/images/facilities/gallery1/dImg/room0/img0.jpg','강원','강원도 영월군 중동면 선도우길 177','033-375-8765', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R026','가학산자연휴양림','http://gahak.haenam.go.kr/','http://gahak.haenam.go.kr/images/gahak/contents/fac_02_000_3.jpg','전남','전남 해남군 계곡면 산골길 306','061-535-4812', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R027','송이밸리자연휴양림','http://www.songivalley.co.kr/','https://www.songivalley.co.kr:454/images/utilization/siteplan3.jpg','강원','강원도 양양군 양양읍 남대천로 107-61','033-670-8765', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="H29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N001','가리왕산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0113','http://www.huyang.go.kr/data/scene/2017_01_12_17_20_030.jpg','강원','강원도 정선군 정선읍 가리왕산로 707','033-562-5833', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N002','검마산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0184','http://www.huyang.go.kr/data/scene/2017_01_14_11_43_420.jpg','경북','경상북도 영양군 수비면 검마산길 191','054-682-9009', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="H31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N003','검봉산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0244','http://www.huyang.go.kr/data/scene/2017_01_28_20_20_150.png','강원','강원도 삼척시 원덕읍 임원안길 525-145','033-574-2553', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N004','낙안민속자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0200','http://www.huyang.go.kr/data/scene/2017_01_06_17_49_310.jpg','전라','전라남도 순천시 낙안면 민속마을길 1600번지','061-754-4400', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="H33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N005','남해편백자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0192','http://www.huyang.go.kr/data/scene/2017_01_17_18_18_330.jpg','경상','경상남도 남해군 삼동면 금암로 658','055-867-7881', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="H34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N006','대관령자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0111','http://www.huyang.go.kr/data/scene/2017_01_13_11_57_000.jpg','강원','강원도 강릉시 성산면 삼포암길 133','033-641-9990', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="H35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N007','대야산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0245','http://www.huyang.go.kr/data/scene/2017_08_09_11_45_290.jpg','경상','경상북도 문경시 가은읍 용추길 31-35','054-571-7181~2', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="H36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N008','덕유산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0141','http://www.huyang.go.kr/data/scene/2017_01_21_15_28_570.jpg','전북','전라북도 무주군 무풍면 구천동로 530-62','063-322-1097', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="H37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N009','두타산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0243','http://www.huyang.go.kr/data/scene/2017_08_28_17_43_220.jpg','강원','강원도 평창군 진부면 아차골길 132','033-334-8815', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="H38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N010','미천골자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0112','http://www.huyang.go.kr/data/scene/2017_01_04_23_51_340.jpg','강원','강원도 양양군 서면 미천골길 115','033-673-1806', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="H39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N011','방장산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0181','http://www.huyang.go.kr/data/scene/2017_08_28_17_54_100.jpg','전남','전라남도 장성군 북이면 방장로 353','061-394-5523', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="H40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N012','방태산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0109','http://www.huyang.go.kr/data/scene/20110311114702_28925.jpg','강원','강원도 인제군 기린면 방태산길 241','033-463-8590', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="H41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N013','백운산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0223','http://www.huyang.go.kr/data/scene/2017_01_04_05_34_240.jpg','강원','강원도 원주시 판부면 백운산길81','033-766-1063', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="H42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N014','변산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0189','http://www.huyang.go.kr/data/scene/2017_01_10_17_46_380.jpg','전북','전라북도 부안군 변산면 변산로 3768','063-581-9977', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N015','복주산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0110','http://www.huyang.go.kr/data/product/2016_12_30_10_05_490.jpg','강원','강원도 철원군 근남면 하오재로 818','033-458-9426', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="H44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N016','산음자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0103','http://www.huyang.go.kr/data/product/2017_05_30_19_10_470.jpg','경기','경기도 양평군 단월면 고북길 347','031-774-8133', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="H45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N017','삼봉자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0107','http://www.huyang.go.kr/data/scene/2017_01_17_13_38_160.jpg','강원','강원도 홍천군 내면 삼봉휴양길 276','033-435-8536', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N018','상당산성자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0300','http://www.huyang.go.kr/data/scene/2018_01_22_11_13_400.jpg','충북','충청북도 청주시 청원구 내수읍 덕암2길 162','043-216-0052', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="H47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N019','서귀포자연휴양림','http://healing.seogwipo.go.kr/seoforest/layout.htm','http://healing.seogwipo.go.kr/files/editor/ba083f51-d1e3-4230-8b41-1b1fad5d8e83.jpg','제주','제주도 서귀포시 대포동 산1-1번지 일원 국유림','064-738-4544', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="H48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N020','붉은오름자연휴양림','http://healing.seogwipo.go.kr/redforest/layout.htm','http://healing.seogwipo.go.kr/files/editor/d322d3e2-6973-4684-9ddc-2e37c5ee39f5.jpg','제주','제주도 서귀포시 표선면 남조로 1487-73(표선면 가시리 산158번지)','064-760-3481~2', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="H49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N021','속리산말티재자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0115','http://www.huyang.go.kr/data/scene/20110311150059_49810.jpg','충북','충청북도 보은군 장안면 속리산로 256','043-543-6283', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="H50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N022','신불산폭포자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0105','http://www.huyang.go.kr/data/scene/2017_01_07_15_48_190.jpg','울산','울산광역시 울주군 상북면 억새벌길 200-78','052-254-2124', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N023','아세안자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0104','http://www.huyang.go.kr/data/scene/2018_01_08_16_05_320.jpg','경기','경기도 양주시','031-871-2796', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="H52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N024','오서산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0191','http://www.huyang.go.kr/data/scene/2017_01_17_17_47_430.jpg','충남','충청남도 보령시 청라면 오서산길 531','041-936-5465,5468', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="H53" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N025','용대자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0102','http://www.huyang.go.kr/data/scene/20091029154014_60012.jpg','강원','강원도 인제군 북면 용대리 연화동길','033-462-5031', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="H54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N026','용현자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0220','http://www.huyang.go.kr/data/scene/2018_01_08_16_38_160.jpg','충남','충청남도 서산시 운산면 마애삼존불길 339','041-664-1978', 'Y', now(), now());</v>
       </c>
     </row>
   </sheetData>
@@ -2047,9 +3333,61 @@
     <hyperlink ref="D27" r:id="rId32"/>
     <hyperlink ref="C28" r:id="rId33"/>
     <hyperlink ref="D28" r:id="rId34"/>
+    <hyperlink ref="C29" r:id="rId35"/>
+    <hyperlink ref="C31" r:id="rId36"/>
+    <hyperlink ref="C30" r:id="rId37"/>
+    <hyperlink ref="C32" r:id="rId38"/>
+    <hyperlink ref="C33" r:id="rId39"/>
+    <hyperlink ref="C34" r:id="rId40"/>
+    <hyperlink ref="C35" r:id="rId41"/>
+    <hyperlink ref="C36" r:id="rId42"/>
+    <hyperlink ref="C37" r:id="rId43"/>
+    <hyperlink ref="C38" r:id="rId44"/>
+    <hyperlink ref="C39" r:id="rId45"/>
+    <hyperlink ref="C40" r:id="rId46"/>
+    <hyperlink ref="C41" r:id="rId47"/>
+    <hyperlink ref="C54" r:id="rId48"/>
+    <hyperlink ref="C53" r:id="rId49"/>
+    <hyperlink ref="C52" r:id="rId50"/>
+    <hyperlink ref="C51" r:id="rId51"/>
+    <hyperlink ref="C50" r:id="rId52"/>
+    <hyperlink ref="C49" r:id="rId53"/>
+    <hyperlink ref="C46" r:id="rId54"/>
+    <hyperlink ref="C45" r:id="rId55"/>
+    <hyperlink ref="C44" r:id="rId56"/>
+    <hyperlink ref="C43" r:id="rId57"/>
+    <hyperlink ref="C42" r:id="rId58"/>
+    <hyperlink ref="C47" r:id="rId59"/>
+    <hyperlink ref="C48" r:id="rId60"/>
+    <hyperlink ref="D29" r:id="rId61"/>
+    <hyperlink ref="D30" r:id="rId62"/>
+    <hyperlink ref="D31" r:id="rId63"/>
+    <hyperlink ref="D32" r:id="rId64"/>
+    <hyperlink ref="D33" r:id="rId65"/>
+    <hyperlink ref="D34" r:id="rId66"/>
+    <hyperlink ref="D35" r:id="rId67"/>
+    <hyperlink ref="D37" r:id="rId68"/>
+    <hyperlink ref="D36" r:id="rId69"/>
+    <hyperlink ref="D38" r:id="rId70"/>
+    <hyperlink ref="D39" r:id="rId71"/>
+    <hyperlink ref="D40" r:id="rId72"/>
+    <hyperlink ref="D41" r:id="rId73"/>
+    <hyperlink ref="D42" r:id="rId74"/>
+    <hyperlink ref="D43" r:id="rId75"/>
+    <hyperlink ref="D44" r:id="rId76"/>
+    <hyperlink ref="D45" r:id="rId77"/>
+    <hyperlink ref="D46" r:id="rId78"/>
+    <hyperlink ref="D47" r:id="rId79"/>
+    <hyperlink ref="D48" r:id="rId80"/>
+    <hyperlink ref="D49" r:id="rId81"/>
+    <hyperlink ref="D50" r:id="rId82"/>
+    <hyperlink ref="D51" r:id="rId83"/>
+    <hyperlink ref="D52" r:id="rId84"/>
+    <hyperlink ref="D53" r:id="rId85"/>
+    <hyperlink ref="D54" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId87"/>
 </worksheet>
 </file>
 
@@ -2058,7 +3396,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2105,7 +3443,7 @@
       <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="F2" t="s">
@@ -2122,7 +3460,7 @@
       <c r="D3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>109</v>
       </c>
       <c r="F3" t="s">
@@ -2139,7 +3477,7 @@
       <c r="D4" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>109</v>
       </c>
       <c r="F4" t="s">
@@ -2153,219 +3491,219 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8" t="s">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8" t="s">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="Q16" s="8"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="236">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -813,6 +813,31 @@
   </si>
   <si>
     <t>033-333-0701</t>
+  </si>
+  <si>
+    <t>R029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대운산자연휴양림</t>
+  </si>
+  <si>
+    <t>http://dwhuyang.yssisul.or.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yssisul.or.kr/dwhuyang/cmm/fms/getImage.do?atchFileId=FILE_000000000007080&amp;fileSn=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상남도 양산시 탑골길 208-124</t>
+  </si>
+  <si>
+    <t>055-379-8670</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1261,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:G29"/>
+      <selection activeCell="D30" sqref="D30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2051,6 +2076,29 @@
       </c>
       <c r="G29" s="9" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="49.5">
+      <c r="A30" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2092,9 +2140,11 @@
     <hyperlink ref="D28" r:id="rId34"/>
     <hyperlink ref="C29" r:id="rId35"/>
     <hyperlink ref="D29" r:id="rId36"/>
+    <hyperlink ref="C30" r:id="rId37"/>
+    <hyperlink ref="D30" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId39"/>
 </worksheet>
 </file>
 

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectHome\workspace\honsul-inthewood-spider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2640" windowWidth="17130" windowHeight="9975"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="휴양림" sheetId="1" r:id="rId1"/>
     <sheet name="숙박시설" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="403">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1390,13 +1385,38 @@
   </si>
   <si>
     <t>033-333-0701</t>
+  </si>
+  <si>
+    <t>R030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미숭산자연휴양림</t>
+  </si>
+  <si>
+    <t>http://www.misungsan.com/2014/contents/main/main.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.misungsan.com/2014/images/room/menu02_02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북 고령군 대가야읍 신리 45-17</t>
+  </si>
+  <si>
+    <t>054-950-7407</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1580,9 +1600,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1594,6 +1611,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1868,21 +1888,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="D56" sqref="D56:G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="21.375" style="8" bestFit="1" customWidth="1"/>
@@ -1894,7 +1914,7 @@
     <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1944,7 +1964,7 @@
         <v>INSERT INTO RESORT VALUES('R001','좌구산자연휴양림','http://jwagu.jp.go.kr/','http://jwagu.jp.go.kr/jwagusan.do?cmd=gallery.galleryImgView&amp;imgSrc=http://jwagu.jp.go.kr/upload/p1bo9a5mb31ink7aj1tpu10mg1pje4','충북','충북 증평군 증평읍 솟점말길 107','043-835-4551~3 (좌구산자연휴양림)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +1991,7 @@
         <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1998,7 +2018,7 @@
         <v>INSERT INTO RESORT VALUES('R003','광치자연휴양림','https://www.kwangchi.or.kr:451/','https://www.kwangchi.or.kr:451/board/files/inno_6/test_img5.jpg','강원','강원도 양구군 남면 광치령로1794번길 265 ','대표전화 (033) 482-3115', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -2025,7 +2045,7 @@
         <v>INSERT INTO RESORT VALUES('R004','문성자연휴양림','http://msf.cj100.net/','http://msf.cj100.net/board/files/inno_6/IMG_6605.JPG','충북','충청북도 충주시 노은면 우성1길 191','043-870-7911~7914 (휴양림관리사무소)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -2052,7 +2072,7 @@
         <v>INSERT INTO RESORT VALUES('R005','봉황자연휴양림','http://bhf.cj100.net/main.asp','http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%82%B0%EC%B1%85%EB%A1%9C.jpg','충북','충청북도 충주시 중앙탑면 수룡봉황길 540','043-870-7920~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -2079,7 +2099,7 @@
         <v>INSERT INTO RESORT VALUES('R006','계명산자연휴양림','http://gmf.cjfmc.or.kr/main.asp','http://gmf.cjfmc.or.kr/board/files/inno_5/DSC00298.jpg','충북','충청북도 충주시 충주호수로 1170','043-870-7930~2 / 휴양림관리사무소', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2126,7 @@
         <v>INSERT INTO RESORT VALUES('R007','가리산자연휴양림','http://www.garisan.kr/','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424650&amp;fileSn=1&amp;thumbYn=Y','강원','강원도 홍천군 두촌면 가리산길 426 (천현리 산134-1) 홍천군유림','033-435-6034', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -2133,7 +2153,7 @@
         <v>INSERT INTO RESORT VALUES('R008','봉수산자연휴양림','http://www.bongsoosan.com','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424680&amp;fileSn=2&amp;thumbYn=Y','충남','충청남도 예산군 대흥면 임존성길153 (상중리 470-3)','(041) 339-8936~8', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -2160,7 +2180,7 @@
         <v>INSERT INTO RESORT VALUES('R009','구재봉자연휴양림','http://hadongforest.co.kr/','http://hadongforest.co.kr/files/2016/05/19/8a203687e0e42cf69d6e795007c2aa15144108.jpg','경남','경상남도 하동군 적량면 중서길 60-81','070)8855-8011~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2187,7 +2207,7 @@
         <v>INSERT INTO RESORT VALUES('R010','군위장곡자연휴양림','http://janggok.gunwi.go.kr/','http://janggok.gunwi.go.kr/new/board/data/winter/1233218459_0.jpg','경북','경북 군위군 고로면 장곡리 산 1-1, 5번지','054-380-6313', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -2214,7 +2234,7 @@
         <v>INSERT INTO RESORT VALUES('R011','강씨봉자연휴양림','http://farm.gg.go.kr/sigt/56','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_kang_info.jpg','경기','경기도 가평군 북면 논남기길 520(적목리 324)','(031) 8008-6611', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -2241,7 +2261,7 @@
         <v>INSERT INTO RESORT VALUES('R012','축령산자연휴양림','http://farm.gg.go.kr/sigt/41','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_chuk_info1.jpg','경기','경기도 남양주시 수동면 축령산로299','(031) 592-0681, 8008-6690', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -2268,7 +2288,7 @@
         <v>INSERT INTO RESORT VALUES('R013','박달재자연휴양림','http://baf.cbhuyang.go.kr/','http://baf.cbhuyang.go.kr/images/facilities/dImg/room3/img1.jpg','충북','충북 제천시 백운면 금봉로 228','(043) 652-0910', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -2295,7 +2315,7 @@
         <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>132</v>
       </c>
@@ -2322,7 +2342,7 @@
         <v>INSERT INTO RESORT VALUES('R015','남이자연휴양림','http://forestown.geumsan.go.kr/','http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg','충남','충남 금산군 남이면 느티골길 200','041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>133</v>
       </c>
@@ -2349,7 +2369,7 @@
         <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>145</v>
       </c>
@@ -2376,7 +2396,7 @@
         <v>INSERT INTO RESORT VALUES('R017','방화동자연휴양림','http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp','http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg','전북','전북 장수군 번암면 방화동로 778','063-353-0855', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>152</v>
       </c>
@@ -2403,7 +2423,7 @@
         <v>INSERT INTO RESORT VALUES('R018','석모도자연휴양림','http://forest.ganghwa.go.kr','http://forest.ganghwa.go.kr/img/sub/house.jpg','인천','인천광역시 강화군 삼산면 삼산서로 39-75 (417-913)','032-932-1100', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>158</v>
       </c>
@@ -2430,7 +2450,7 @@
         <v>INSERT INTO RESORT VALUES('R019','용문산자연휴양림','https://www.ypforest.com/','https://www.swijapark.com/contents/swi3_photo2/swiphoto_002.jpg','경기','경기도 양평군 양평읍 약수사길 78-14','031-775-4005', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>159</v>
       </c>
@@ -2457,7 +2477,7 @@
         <v>INSERT INTO RESORT VALUES('R020','춘천숲자연휴양림','http://www.ccforest.or.kr/','http://www.ccforest.or.kr/img/p1.jpg','강원','강원도 춘천시 동산면 종자리로 224-104','033-264-1156(재단법인 숲 아다지오)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>173</v>
       </c>
@@ -2484,7 +2504,7 @@
         <v>INSERT INTO RESORT VALUES('R021','치악산자연휴양림','http://www.chiakforest.com/','http://member.nfcf.or.kr/chiak/images/contents/img_fct0203_01.jpg','강원','강원도 원주시 판부면 휴양림길 66','033-762-8288', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>180</v>
       </c>
@@ -2511,7 +2531,7 @@
         <v>INSERT INTO RESORT VALUES('R022','안면도자연휴양림','https://www.anmyonhuyang.go.kr:453/','https://www.anmyonhuyang.go.kr:453/board/files/inno_4/20160906_094910%20%ED%99%94%EB%AA%A9%EB%8F%99%20%EC%A0%84%EA%B2%BD.jpg','충남','충남 태안군 안면읍 안면대로 3195-6','041-674-5019, 670-2452', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>187</v>
       </c>
@@ -2538,7 +2558,7 @@
         <v>INSERT INTO RESORT VALUES('R023','바라산자연휴양림','http://barasan.uw21.net/','http://barasan.uw21.net/images/content/facil/img_forest02.jpg','경기','경기도 의왕시 북골안길 96','031-345-3842', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>203</v>
       </c>
@@ -2565,7 +2585,7 @@
         <v>INSERT INTO RESORT VALUES('R024','와룡자연휴양림','http://www.jangsuhuyang.kr/Waryong/reserve/list.asp','http://www.jangsuhuyang.kr/Waryong/img/facility/ab_overview_primg03.jpg','전북','전북 장수군 천천면 비룡로 632','063-353-1404', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>195</v>
       </c>
@@ -2592,7 +2612,7 @@
         <v>INSERT INTO RESORT VALUES('R025','망경대산자연휴양림','https://www.mgds.kr:454','https://www.mgds.kr:454/images/facilities/gallery1/dImg/room0/img0.jpg','강원','강원도 영월군 중동면 선도우길 177','033-375-8765', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>200</v>
       </c>
@@ -2619,7 +2639,7 @@
         <v>INSERT INTO RESORT VALUES('R026','가학산자연휴양림','http://gahak.haenam.go.kr/','http://gahak.haenam.go.kr/images/gahak/contents/fac_02_000_3.jpg','전남','전남 해남군 계곡면 산골길 306','061-535-4812', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>215</v>
       </c>
@@ -2646,26 +2666,26 @@
         <v>INSERT INTO RESORT VALUES('R027','송이밸리자연휴양림','http://www.songivalley.co.kr/','https://www.songivalley.co.kr:454/images/utilization/siteplan3.jpg','강원','강원도 양양군 양양읍 남대천로 107-61','033-670-8765', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="29" spans="1:8" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" customFormat="1" ht="49.5">
       <c r="A29" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>395</v>
       </c>
       <c r="H29" s="9" t="str">
@@ -2673,7 +2693,7 @@
         <v>INSERT INTO RESORT VALUES('R028','평창자연휴양림','https://forest700.or.kr:10462/','https://forest700.or.kr:10462/data/file/comm2/thumb-599170908_nDOfVxZJ_03_670x447.jpg','강원','강원도 평창군 봉평면 팔송로 285','033-333-0701', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>222</v>
       </c>
@@ -2700,7 +2720,7 @@
         <v>INSERT INTO RESORT VALUES('N001','가리왕산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0113','http://www.huyang.go.kr/data/scene/2017_01_12_17_20_030.jpg','강원','강원도 정선군 정선읍 가리왕산로 707','033-562-5833', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>223</v>
       </c>
@@ -2727,7 +2747,7 @@
         <v>INSERT INTO RESORT VALUES('N002','검마산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0184','http://www.huyang.go.kr/data/scene/2017_01_14_11_43_420.jpg','경북','경상북도 영양군 수비면 검마산길 191','054-682-9009', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>224</v>
       </c>
@@ -2754,7 +2774,7 @@
         <v>INSERT INTO RESORT VALUES('N003','검봉산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0244','http://www.huyang.go.kr/data/scene/2017_01_28_20_20_150.png','강원','강원도 삼척시 원덕읍 임원안길 525-145','033-574-2553', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>225</v>
       </c>
@@ -2781,7 +2801,7 @@
         <v>INSERT INTO RESORT VALUES('N004','낙안민속자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0200','http://www.huyang.go.kr/data/scene/2017_01_06_17_49_310.jpg','전라','전라남도 순천시 낙안면 민속마을길 1600번지','061-754-4400', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>226</v>
       </c>
@@ -2808,7 +2828,7 @@
         <v>INSERT INTO RESORT VALUES('N005','남해편백자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0192','http://www.huyang.go.kr/data/scene/2017_01_17_18_18_330.jpg','경상','경상남도 남해군 삼동면 금암로 658','055-867-7881', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.5" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>227</v>
       </c>
@@ -2835,7 +2855,7 @@
         <v>INSERT INTO RESORT VALUES('N006','대관령자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0111','http://www.huyang.go.kr/data/scene/2017_01_13_11_57_000.jpg','강원','강원도 강릉시 성산면 삼포암길 133','033-641-9990', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>228</v>
       </c>
@@ -2862,7 +2882,7 @@
         <v>INSERT INTO RESORT VALUES('N007','대야산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0245','http://www.huyang.go.kr/data/scene/2017_08_09_11_45_290.jpg','경상','경상북도 문경시 가은읍 용추길 31-35','054-571-7181~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16.5" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>229</v>
       </c>
@@ -2889,7 +2909,7 @@
         <v>INSERT INTO RESORT VALUES('N008','덕유산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0141','http://www.huyang.go.kr/data/scene/2017_01_21_15_28_570.jpg','전북','전라북도 무주군 무풍면 구천동로 530-62','063-322-1097', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.5" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>230</v>
       </c>
@@ -2916,7 +2936,7 @@
         <v>INSERT INTO RESORT VALUES('N009','두타산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0243','http://www.huyang.go.kr/data/scene/2017_08_28_17_43_220.jpg','강원','강원도 평창군 진부면 아차골길 132','033-334-8815', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>231</v>
       </c>
@@ -2943,7 +2963,7 @@
         <v>INSERT INTO RESORT VALUES('N010','미천골자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0112','http://www.huyang.go.kr/data/scene/2017_01_04_23_51_340.jpg','강원','강원도 양양군 서면 미천골길 115','033-673-1806', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>232</v>
       </c>
@@ -2970,7 +2990,7 @@
         <v>INSERT INTO RESORT VALUES('N011','방장산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0181','http://www.huyang.go.kr/data/scene/2017_08_28_17_54_100.jpg','전남','전라남도 장성군 북이면 방장로 353','061-394-5523', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.5" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>233</v>
       </c>
@@ -2997,7 +3017,7 @@
         <v>INSERT INTO RESORT VALUES('N012','방태산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0109','http://www.huyang.go.kr/data/scene/20110311114702_28925.jpg','강원','강원도 인제군 기린면 방태산길 241','033-463-8590', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>234</v>
       </c>
@@ -3024,7 +3044,7 @@
         <v>INSERT INTO RESORT VALUES('N013','백운산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0223','http://www.huyang.go.kr/data/scene/2017_01_04_05_34_240.jpg','강원','강원도 원주시 판부면 백운산길81','033-766-1063', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>235</v>
       </c>
@@ -3051,7 +3071,7 @@
         <v>INSERT INTO RESORT VALUES('N014','변산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0189','http://www.huyang.go.kr/data/scene/2017_01_10_17_46_380.jpg','전북','전라북도 부안군 변산면 변산로 3768','063-581-9977', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>236</v>
       </c>
@@ -3078,7 +3098,7 @@
         <v>INSERT INTO RESORT VALUES('N015','복주산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0110','http://www.huyang.go.kr/data/product/2016_12_30_10_05_490.jpg','강원','강원도 철원군 근남면 하오재로 818','033-458-9426', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="16.5" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>237</v>
       </c>
@@ -3105,7 +3125,7 @@
         <v>INSERT INTO RESORT VALUES('N016','산음자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0103','http://www.huyang.go.kr/data/product/2017_05_30_19_10_470.jpg','경기','경기도 양평군 단월면 고북길 347','031-774-8133', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.5" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>238</v>
       </c>
@@ -3132,7 +3152,7 @@
         <v>INSERT INTO RESORT VALUES('N017','삼봉자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0107','http://www.huyang.go.kr/data/scene/2017_01_17_13_38_160.jpg','강원','강원도 홍천군 내면 삼봉휴양길 276','033-435-8536', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.5" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>239</v>
       </c>
@@ -3159,7 +3179,7 @@
         <v>INSERT INTO RESORT VALUES('N018','상당산성자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0300','http://www.huyang.go.kr/data/scene/2018_01_22_11_13_400.jpg','충북','충청북도 청주시 청원구 내수읍 덕암2길 162','043-216-0052', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.5" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>240</v>
       </c>
@@ -3186,7 +3206,7 @@
         <v>INSERT INTO RESORT VALUES('N019','서귀포자연휴양림','http://healing.seogwipo.go.kr/seoforest/layout.htm','http://healing.seogwipo.go.kr/files/editor/ba083f51-d1e3-4230-8b41-1b1fad5d8e83.jpg','제주','제주도 서귀포시 대포동 산1-1번지 일원 국유림','064-738-4544', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>241</v>
       </c>
@@ -3213,7 +3233,7 @@
         <v>INSERT INTO RESORT VALUES('N020','붉은오름자연휴양림','http://healing.seogwipo.go.kr/redforest/layout.htm','http://healing.seogwipo.go.kr/files/editor/d322d3e2-6973-4684-9ddc-2e37c5ee39f5.jpg','제주','제주도 서귀포시 표선면 남조로 1487-73(표선면 가시리 산158번지)','064-760-3481~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.5" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>242</v>
       </c>
@@ -3240,7 +3260,7 @@
         <v>INSERT INTO RESORT VALUES('N021','속리산말티재자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0115','http://www.huyang.go.kr/data/scene/20110311150059_49810.jpg','충북','충청북도 보은군 장안면 속리산로 256','043-543-6283', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.5" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>243</v>
       </c>
@@ -3267,7 +3287,7 @@
         <v>INSERT INTO RESORT VALUES('N022','신불산폭포자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0105','http://www.huyang.go.kr/data/scene/2017_01_07_15_48_190.jpg','울산','울산광역시 울주군 상북면 억새벌길 200-78','052-254-2124', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>244</v>
       </c>
@@ -3294,7 +3314,7 @@
         <v>INSERT INTO RESORT VALUES('N023','아세안자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0104','http://www.huyang.go.kr/data/scene/2018_01_08_16_05_320.jpg','경기','경기도 양주시','031-871-2796', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16.5" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>245</v>
       </c>
@@ -3321,7 +3341,7 @@
         <v>INSERT INTO RESORT VALUES('N024','오서산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0191','http://www.huyang.go.kr/data/scene/2017_01_17_17_47_430.jpg','충남','충청남도 보령시 청라면 오서산길 531','041-936-5465,5468', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16.5" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>246</v>
       </c>
@@ -3348,7 +3368,7 @@
         <v>INSERT INTO RESORT VALUES('N025','용대자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0102','http://www.huyang.go.kr/data/scene/20091029154014_60012.jpg','강원','강원도 인제군 북면 용대리 연화동길','033-462-5031', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="16.5" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>247</v>
       </c>
@@ -3373,6 +3393,29 @@
       <c r="H55" s="9" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N026','용현자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0220','http://www.huyang.go.kr/data/scene/2018_01_08_16_38_160.jpg','충남','충청남도 서산시 운산면 마애삼존불길 339','041-664-1978', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="33">
+      <c r="A56" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3466,26 +3509,28 @@
     <hyperlink ref="D55" r:id="rId86"/>
     <hyperlink ref="C29" r:id="rId87"/>
     <hyperlink ref="D29" r:id="rId88"/>
+    <hyperlink ref="C56" r:id="rId89"/>
+    <hyperlink ref="D56" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId91"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -3511,7 +3556,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -3537,7 +3582,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="D3" t="s">
         <v>107</v>
       </c>
@@ -3554,7 +3599,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="D4" t="s">
         <v>108</v>
       </c>
@@ -3571,7 +3616,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="D5" s="6" t="s">
         <v>113</v>
       </c>
@@ -3588,7 +3633,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="D6" s="6" t="s">
         <v>131</v>
       </c>
@@ -3605,7 +3650,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="D7" s="6" t="s">
         <v>127</v>
       </c>
@@ -3622,12 +3667,12 @@
         <v>117</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="18"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="D8" s="6" t="s">
         <v>128</v>
       </c>
@@ -3644,12 +3689,12 @@
         <v>117</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="18"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="D9" s="6" t="s">
         <v>129</v>
       </c>
@@ -3666,12 +3711,12 @@
         <v>117</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="18"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="D10" s="6" t="s">
         <v>130</v>
       </c>
@@ -3688,7 +3733,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="J14" s="6" t="s">
         <v>113</v>
       </c>
@@ -3712,7 +3757,7 @@
       </c>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="J15" s="6" t="s">
         <v>126</v>
       </c>
@@ -3730,7 +3775,7 @@
       </c>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="J16" s="6" t="s">
         <v>127</v>
       </c>
@@ -3746,7 +3791,7 @@
       </c>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:17">
       <c r="J17" s="6" t="s">
         <v>128</v>
       </c>
@@ -3762,7 +3807,7 @@
       </c>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:17">
       <c r="J18" s="6" t="s">
         <v>129</v>
       </c>
@@ -3774,7 +3819,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:17">
       <c r="J19" s="6" t="s">
         <v>130</v>
       </c>

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="512">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1390,13 +1390,409 @@
   </si>
   <si>
     <t>033-333-0701</t>
+  </si>
+  <si>
+    <t>N027</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>N030</t>
+  </si>
+  <si>
+    <t>N031</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>N033</t>
+  </si>
+  <si>
+    <t>N034</t>
+  </si>
+  <si>
+    <t>N035</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
+    <t>N037</t>
+  </si>
+  <si>
+    <t>N038</t>
+  </si>
+  <si>
+    <t>N039</t>
+  </si>
+  <si>
+    <t>N040</t>
+  </si>
+  <si>
+    <t>N041</t>
+  </si>
+  <si>
+    <t>N042</t>
+  </si>
+  <si>
+    <t>N043</t>
+  </si>
+  <si>
+    <t>용화산자연휴양림</t>
+  </si>
+  <si>
+    <t>운문산자연휴양림</t>
+  </si>
+  <si>
+    <t>운악산자연휴양림</t>
+  </si>
+  <si>
+    <t>운장산자연휴양림</t>
+  </si>
+  <si>
+    <t>유명산자연휴양림</t>
+  </si>
+  <si>
+    <t>제주절물자연휴양림</t>
+  </si>
+  <si>
+    <t>중미산자연휴양림</t>
+  </si>
+  <si>
+    <t>지리산자연휴양림</t>
+  </si>
+  <si>
+    <t>진도자연휴양림</t>
+  </si>
+  <si>
+    <t>천관산자연휴양림</t>
+  </si>
+  <si>
+    <t>청옥산자연휴양림</t>
+  </si>
+  <si>
+    <t>청태산자연휴양림</t>
+  </si>
+  <si>
+    <t>칠보산자연휴양림</t>
+  </si>
+  <si>
+    <t>통고산자연휴양림</t>
+  </si>
+  <si>
+    <t>황정산자연휴양림</t>
+  </si>
+  <si>
+    <t>회문산자연휴양림</t>
+  </si>
+  <si>
+    <t>희리산해송자연휴양림</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jeolmul.jejusi.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_10_17_41_160.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 춘천시 사북면 사여골길 294</t>
+  </si>
+  <si>
+    <t>033-243-9261</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_07_11_34_310.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도 청도군 운문면 운문로 763</t>
+  </si>
+  <si>
+    <t>054-373-1327</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_17_19_23_550.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 포천시 화현면 화동로184번길 39</t>
+  </si>
+  <si>
+    <t>031-534-6330</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20110311163046_25775.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북 진안군 정천면 휴양림길 77</t>
+  </si>
+  <si>
+    <t>063-432-1193</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_10_10_13_310.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 가평군 설악면 유명산길 79-53</t>
+  </si>
+  <si>
+    <t>031-589-5487</t>
+  </si>
+  <si>
+    <t>https://jeolmul.jejusi.go.kr:457/board/files/inno_5/DSCF2859.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 제주시 봉개동</t>
+  </si>
+  <si>
+    <t>064-728-3631</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2018_01_08_13_56_430.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 양평군 옥천면 중미산로 1152</t>
+  </si>
+  <si>
+    <t>031-774-8552</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20110311163645_30930.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상남도 함양군 마천면 음정길 152</t>
+  </si>
+  <si>
+    <t>055-963-8133</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/product/2017_07_03_18_01_380.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남 진도군 임회면 굴포리 동령개길 31-1</t>
+  </si>
+  <si>
+    <t>061-542-2346</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/product/2017_02_04_15_20_010.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 장흥군 관산읍 칠관로 842-1150</t>
+  </si>
+  <si>
+    <t>061-867-6974</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2014_01_03_23_26_320.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북 봉화군 석포면 청옥로 1552-163</t>
+  </si>
+  <si>
+    <t>054-672-1051~2</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_08_09_14_430.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 횡성군 둔내면 청태산로 610</t>
+  </si>
+  <si>
+    <t>033-343-9707</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_06_20_58_120.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도 영덕군 병곡면 칠보산길 587</t>
+  </si>
+  <si>
+    <t>054-732-1607</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20110311142802_15318.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도 울진군 서면 불영계곡로 880</t>
+  </si>
+  <si>
+    <t>054-783-3167</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_11_13_39_530.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도 단양군 대강면 황정산로 239-11</t>
+  </si>
+  <si>
+    <t>043-421-0608</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/%ED%9A%8C%EB%AC%B8%EC%82%B0_%ED%9C%B4%EC%96%91%EB%A6%BC_%ED%92%8D%EA%B2%BD_20170515_20.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라북도 순창군 구림면 안심길 214</t>
+  </si>
+  <si>
+    <t>063-653-4779</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20120624134641_32314.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 서천군 종천면 희리산길 206</t>
+  </si>
+  <si>
+    <t>041-953-9981,2230</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1470,14 +1866,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1525,18 +1913,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1547,53 +1929,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1876,76 +2240,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="21.375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="9" style="8"/>
     <col min="6" max="6" width="31.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="9"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="9" t="str">
+      <c r="H2" s="7" t="str">
         <f>"INSERT INTO RESORT VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"', 'Y', now(), now());"</f>
         <v>INSERT INTO RESORT VALUES('R001','좌구산자연휴양림','http://jwagu.jp.go.kr/','http://jwagu.jp.go.kr/jwagusan.do?cmd=gallery.galleryImgView&amp;imgSrc=http://jwagu.jp.go.kr/upload/p1bo9a5mb31ink7aj1tpu10mg1pje4','충북','충북 증평군 증평읍 솟점말길 107','043-835-4551~3 (좌구산자연휴양림)', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1954,7 +2318,7 @@
       <c r="C3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1963,25 +2327,25 @@
       <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="9" t="str">
-        <f t="shared" ref="H3:H55" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', 'Y', now(), now());"</f>
+      <c r="H3" s="7" t="str">
+        <f t="shared" ref="H3:H66" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', 'Y', now(), now());"</f>
         <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1990,43 +2354,43 @@
       <c r="F4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="9" t="str">
+      <c r="H4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R003','광치자연휴양림','https://www.kwangchi.or.kr:451/','https://www.kwangchi.or.kr:451/board/files/inno_6/test_img5.jpg','강원','강원도 양구군 남면 광치령로1794번길 265 ','대표전화 (033) 482-3115', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R004','문성자연휴양림','http://msf.cj100.net/','http://msf.cj100.net/board/files/inno_6/IMG_6605.JPG','충북','충청북도 충주시 노은면 우성1길 191','043-870-7911~7914 (휴양림관리사무소)', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2035,7 +2399,7 @@
       <c r="C6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2044,16 +2408,16 @@
       <c r="F6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="9" t="str">
+      <c r="H6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R005','봉황자연휴양림','http://bhf.cj100.net/main.asp','http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%82%B0%EC%B1%85%EB%A1%9C.jpg','충북','충청북도 충주시 중앙탑면 수룡봉황길 540','043-870-7920~2', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2068,19 +2432,19 @@
       <c r="E7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="9" t="str">
+      <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R006','계명산자연휴양림','http://gmf.cjfmc.or.kr/main.asp','http://gmf.cjfmc.or.kr/board/files/inno_5/DSC00298.jpg','충북','충청북도 충주시 충주호수로 1170','043-870-7930~2 / 휴양림관리사무소', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2089,7 +2453,7 @@
       <c r="C8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2101,13 +2465,13 @@
       <c r="G8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R007','가리산자연휴양림','http://www.garisan.kr/','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424650&amp;fileSn=1&amp;thumbYn=Y','강원','강원도 홍천군 두촌면 가리산길 426 (천현리 산134-1) 홍천군유림','033-435-6034', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2116,7 +2480,7 @@
       <c r="C9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2125,16 +2489,16 @@
       <c r="F9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="9" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R008','봉수산자연휴양림','http://www.bongsoosan.com','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424680&amp;fileSn=2&amp;thumbYn=Y','충남','충청남도 예산군 대흥면 임존성길153 (상중리 470-3)','(041) 339-8936~8', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2149,19 +2513,19 @@
       <c r="E10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="9" t="str">
+      <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R009','구재봉자연휴양림','http://hadongforest.co.kr/','http://hadongforest.co.kr/files/2016/05/19/8a203687e0e42cf69d6e795007c2aa15144108.jpg','경남','경상남도 하동군 적량면 중서길 60-81','070)8855-8011~2', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2176,157 +2540,157 @@
       <c r="E11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="H11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R010','군위장곡자연휴양림','http://janggok.gunwi.go.kr/','http://janggok.gunwi.go.kr/new/board/data/winter/1233218459_0.jpg','경북','경북 군위군 고로면 장곡리 산 1-1, 5번지','054-380-6313', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="9" t="str">
+      <c r="H12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R011','강씨봉자연휴양림','http://farm.gg.go.kr/sigt/56','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_kang_info.jpg','경기','경기도 가평군 북면 논남기길 520(적목리 324)','(031) 8008-6611', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="9" t="str">
+      <c r="H13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R012','축령산자연휴양림','http://farm.gg.go.kr/sigt/41','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_chuk_info1.jpg','경기','경기도 남양주시 수동면 축령산로299','(031) 592-0681, 8008-6690', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="9" t="str">
+      <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R013','박달재자연휴양림','http://baf.cbhuyang.go.kr/','http://baf.cbhuyang.go.kr/images/facilities/dImg/room3/img1.jpg','충북','충북 제천시 백운면 금봉로 228','(043) 652-0910', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="9" t="str">
+      <c r="H15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="9" t="str">
+      <c r="H16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R015','남이자연휴양림','http://forestown.geumsan.go.kr/','http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg','충남','충남 금산군 남이면 느티골길 200','041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -2335,340 +2699,340 @@
       <c r="D17" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="9" t="str">
+      <c r="H17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="9" t="str">
+      <c r="H18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R017','방화동자연휴양림','http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp','http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg','전북','전북 장수군 번암면 방화동로 778','063-353-0855', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>152</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="9" t="str">
+      <c r="H19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R018','석모도자연휴양림','http://forest.ganghwa.go.kr','http://forest.ganghwa.go.kr/img/sub/house.jpg','인천','인천광역시 강화군 삼산면 삼산서로 39-75 (417-913)','032-932-1100', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="9" t="str">
+      <c r="H20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R019','용문산자연휴양림','https://www.ypforest.com/','https://www.swijapark.com/contents/swi3_photo2/swiphoto_002.jpg','경기','경기도 양평군 양평읍 약수사길 78-14','031-775-4005', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H21" s="9" t="str">
+      <c r="H21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R020','춘천숲자연휴양림','http://www.ccforest.or.kr/','http://www.ccforest.or.kr/img/p1.jpg','강원','강원도 춘천시 동산면 종자리로 224-104','033-264-1156(재단법인 숲 아다지오)', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="9" t="str">
+      <c r="H22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R021','치악산자연휴양림','http://www.chiakforest.com/','http://member.nfcf.or.kr/chiak/images/contents/img_fct0203_01.jpg','강원','강원도 원주시 판부면 휴양림길 66','033-762-8288', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H23" s="9" t="str">
+      <c r="H23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R022','안면도자연휴양림','https://www.anmyonhuyang.go.kr:453/','https://www.anmyonhuyang.go.kr:453/board/files/inno_4/20160906_094910%20%ED%99%94%EB%AA%A9%EB%8F%99%20%EC%A0%84%EA%B2%BD.jpg','충남','충남 태안군 안면읍 안면대로 3195-6','041-674-5019, 670-2452', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H24" s="9" t="str">
+      <c r="H24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R023','바라산자연휴양림','http://barasan.uw21.net/','http://barasan.uw21.net/images/content/facil/img_forest02.jpg','경기','경기도 의왕시 북골안길 96','031-345-3842', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H25" s="9" t="str">
+      <c r="H25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R024','와룡자연휴양림','http://www.jangsuhuyang.kr/Waryong/reserve/list.asp','http://www.jangsuhuyang.kr/Waryong/img/facility/ab_overview_primg03.jpg','전북','전북 장수군 천천면 비룡로 632','063-353-1404', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="H26" s="9" t="str">
+      <c r="H26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R025','망경대산자연휴양림','https://www.mgds.kr:454','https://www.mgds.kr:454/images/facilities/gallery1/dImg/room0/img0.jpg','강원','강원도 영월군 중동면 선도우길 177','033-375-8765', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H27" s="9" t="str">
+      <c r="H27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R026','가학산자연휴양림','http://gahak.haenam.go.kr/','http://gahak.haenam.go.kr/images/gahak/contents/fac_02_000_3.jpg','전남','전남 해남군 계곡면 산골길 306','061-535-4812', 'Y', now(), now());</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="9" t="str">
+      <c r="H28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R027','송이밸리자연휴양림','http://www.songivalley.co.kr/','https://www.songivalley.co.kr:454/images/utilization/siteplan3.jpg','강원','강원도 양양군 양양읍 남대천로 107-61','033-670-8765', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="29" spans="1:8" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="H29" s="9" t="str">
+      <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R028','평창자연휴양림','https://forest700.or.kr:10462/','https://forest700.or.kr:10462/data/file/comm2/thumb-599170908_nDOfVxZJ_03_670x447.jpg','강원','강원도 평창군 봉평면 팔송로 285','033-333-0701', 'Y', now(), now());</v>
       </c>
@@ -2677,25 +3041,25 @@
       <c r="A30" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="H30" s="9" t="str">
+      <c r="H30" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N001','가리왕산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0113','http://www.huyang.go.kr/data/scene/2017_01_12_17_20_030.jpg','강원','강원도 정선군 정선읍 가리왕산로 707','033-562-5833', 'Y', now(), now());</v>
       </c>
@@ -2704,25 +3068,25 @@
       <c r="A31" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="H31" s="9" t="str">
+      <c r="H31" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N002','검마산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0184','http://www.huyang.go.kr/data/scene/2017_01_14_11_43_420.jpg','경북','경상북도 영양군 수비면 검마산길 191','054-682-9009', 'Y', now(), now());</v>
       </c>
@@ -2731,25 +3095,25 @@
       <c r="A32" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="H32" s="9" t="str">
+      <c r="H32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N003','검봉산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0244','http://www.huyang.go.kr/data/scene/2017_01_28_20_20_150.png','강원','강원도 삼척시 원덕읍 임원안길 525-145','033-574-2553', 'Y', now(), now());</v>
       </c>
@@ -2758,25 +3122,25 @@
       <c r="A33" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="H33" s="9" t="str">
+      <c r="H33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N004','낙안민속자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0200','http://www.huyang.go.kr/data/scene/2017_01_06_17_49_310.jpg','전라','전라남도 순천시 낙안면 민속마을길 1600번지','061-754-4400', 'Y', now(), now());</v>
       </c>
@@ -2785,25 +3149,25 @@
       <c r="A34" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="H34" s="9" t="str">
+      <c r="H34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N005','남해편백자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0192','http://www.huyang.go.kr/data/scene/2017_01_17_18_18_330.jpg','경상','경상남도 남해군 삼동면 금암로 658','055-867-7881', 'Y', now(), now());</v>
       </c>
@@ -2812,25 +3176,25 @@
       <c r="A35" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="H35" s="9" t="str">
+      <c r="H35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N006','대관령자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0111','http://www.huyang.go.kr/data/scene/2017_01_13_11_57_000.jpg','강원','강원도 강릉시 성산면 삼포암길 133','033-641-9990', 'Y', now(), now());</v>
       </c>
@@ -2839,25 +3203,25 @@
       <c r="A36" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="9" t="str">
+      <c r="H36" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N007','대야산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0245','http://www.huyang.go.kr/data/scene/2017_08_09_11_45_290.jpg','경상','경상북도 문경시 가은읍 용추길 31-35','054-571-7181~2', 'Y', now(), now());</v>
       </c>
@@ -2866,25 +3230,25 @@
       <c r="A37" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="H37" s="9" t="str">
+      <c r="H37" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N008','덕유산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0141','http://www.huyang.go.kr/data/scene/2017_01_21_15_28_570.jpg','전북','전라북도 무주군 무풍면 구천동로 530-62','063-322-1097', 'Y', now(), now());</v>
       </c>
@@ -2893,25 +3257,25 @@
       <c r="A38" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="H38" s="9" t="str">
+      <c r="H38" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N009','두타산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0243','http://www.huyang.go.kr/data/scene/2017_08_28_17_43_220.jpg','강원','강원도 평창군 진부면 아차골길 132','033-334-8815', 'Y', now(), now());</v>
       </c>
@@ -2920,25 +3284,25 @@
       <c r="A39" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H39" s="9" t="str">
+      <c r="H39" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N010','미천골자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0112','http://www.huyang.go.kr/data/scene/2017_01_04_23_51_340.jpg','강원','강원도 양양군 서면 미천골길 115','033-673-1806', 'Y', now(), now());</v>
       </c>
@@ -2947,25 +3311,25 @@
       <c r="A40" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H40" s="9" t="str">
+      <c r="H40" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N011','방장산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0181','http://www.huyang.go.kr/data/scene/2017_08_28_17_54_100.jpg','전남','전라남도 장성군 북이면 방장로 353','061-394-5523', 'Y', now(), now());</v>
       </c>
@@ -2974,25 +3338,25 @@
       <c r="A41" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="H41" s="9" t="str">
+      <c r="H41" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N012','방태산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0109','http://www.huyang.go.kr/data/scene/20110311114702_28925.jpg','강원','강원도 인제군 기린면 방태산길 241','033-463-8590', 'Y', now(), now());</v>
       </c>
@@ -3001,25 +3365,25 @@
       <c r="A42" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="H42" s="9" t="str">
+      <c r="H42" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N013','백운산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0223','http://www.huyang.go.kr/data/scene/2017_01_04_05_34_240.jpg','강원','강원도 원주시 판부면 백운산길81','033-766-1063', 'Y', now(), now());</v>
       </c>
@@ -3028,25 +3392,25 @@
       <c r="A43" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="H43" s="9" t="str">
+      <c r="H43" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N014','변산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0189','http://www.huyang.go.kr/data/scene/2017_01_10_17_46_380.jpg','전북','전라북도 부안군 변산면 변산로 3768','063-581-9977', 'Y', now(), now());</v>
       </c>
@@ -3055,25 +3419,25 @@
       <c r="A44" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="H44" s="9" t="str">
+      <c r="H44" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N015','복주산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0110','http://www.huyang.go.kr/data/product/2016_12_30_10_05_490.jpg','강원','강원도 철원군 근남면 하오재로 818','033-458-9426', 'Y', now(), now());</v>
       </c>
@@ -3082,25 +3446,25 @@
       <c r="A45" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="H45" s="9" t="str">
+      <c r="H45" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N016','산음자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0103','http://www.huyang.go.kr/data/product/2017_05_30_19_10_470.jpg','경기','경기도 양평군 단월면 고북길 347','031-774-8133', 'Y', now(), now());</v>
       </c>
@@ -3109,25 +3473,25 @@
       <c r="A46" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="H46" s="9" t="str">
+      <c r="H46" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N017','삼봉자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0107','http://www.huyang.go.kr/data/scene/2017_01_17_13_38_160.jpg','강원','강원도 홍천군 내면 삼봉휴양길 276','033-435-8536', 'Y', now(), now());</v>
       </c>
@@ -3136,25 +3500,25 @@
       <c r="A47" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="H47" s="9" t="str">
+      <c r="H47" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N018','상당산성자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0300','http://www.huyang.go.kr/data/scene/2018_01_22_11_13_400.jpg','충북','충청북도 청주시 청원구 내수읍 덕암2길 162','043-216-0052', 'Y', now(), now());</v>
       </c>
@@ -3163,25 +3527,25 @@
       <c r="A48" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="H48" s="9" t="str">
+      <c r="H48" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N019','서귀포자연휴양림','http://healing.seogwipo.go.kr/seoforest/layout.htm','http://healing.seogwipo.go.kr/files/editor/ba083f51-d1e3-4230-8b41-1b1fad5d8e83.jpg','제주','제주도 서귀포시 대포동 산1-1번지 일원 국유림','064-738-4544', 'Y', now(), now());</v>
       </c>
@@ -3190,25 +3554,25 @@
       <c r="A49" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="H49" s="9" t="str">
+      <c r="H49" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N020','붉은오름자연휴양림','http://healing.seogwipo.go.kr/redforest/layout.htm','http://healing.seogwipo.go.kr/files/editor/d322d3e2-6973-4684-9ddc-2e37c5ee39f5.jpg','제주','제주도 서귀포시 표선면 남조로 1487-73(표선면 가시리 산158번지)','064-760-3481~2', 'Y', now(), now());</v>
       </c>
@@ -3217,25 +3581,25 @@
       <c r="A50" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="H50" s="9" t="str">
+      <c r="H50" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N021','속리산말티재자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0115','http://www.huyang.go.kr/data/scene/20110311150059_49810.jpg','충북','충청북도 보은군 장안면 속리산로 256','043-543-6283', 'Y', now(), now());</v>
       </c>
@@ -3244,25 +3608,25 @@
       <c r="A51" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="H51" s="9" t="str">
+      <c r="H51" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N022','신불산폭포자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0105','http://www.huyang.go.kr/data/scene/2017_01_07_15_48_190.jpg','울산','울산광역시 울주군 상북면 억새벌길 200-78','052-254-2124', 'Y', now(), now());</v>
       </c>
@@ -3271,25 +3635,25 @@
       <c r="A52" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="H52" s="9" t="str">
+      <c r="H52" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N023','아세안자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0104','http://www.huyang.go.kr/data/scene/2018_01_08_16_05_320.jpg','경기','경기도 양주시','031-871-2796', 'Y', now(), now());</v>
       </c>
@@ -3298,25 +3662,25 @@
       <c r="A53" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="H53" s="9" t="str">
+      <c r="H53" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N024','오서산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0191','http://www.huyang.go.kr/data/scene/2017_01_17_17_47_430.jpg','충남','충청남도 보령시 청라면 오서산길 531','041-936-5465,5468', 'Y', now(), now());</v>
       </c>
@@ -3325,25 +3689,25 @@
       <c r="A54" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="H54" s="9" t="str">
+      <c r="H54" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N025','용대자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0102','http://www.huyang.go.kr/data/scene/20091029154014_60012.jpg','강원','강원도 인제군 북면 용대리 연화동길','033-462-5031', 'Y', now(), now());</v>
       </c>
@@ -3352,27 +3716,486 @@
       <c r="A55" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="H55" s="9" t="str">
+      <c r="H55" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('N026','용현자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0220','http://www.huyang.go.kr/data/scene/2018_01_08_16_38_160.jpg','충남','충청남도 서산시 운산면 마애삼존불길 339','041-664-1978', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N027','용화산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0222','http://www.huyang.go.kr/data/scene/2017_01_10_17_41_160.jpg','강원','강원도 춘천시 사북면 사여골길 294','033-243-9261', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="H57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N028','운문산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0195','http://www.huyang.go.kr/data/scene/2017_01_07_11_34_310.jpg','경북','경상북도 청도군 운문면 운문로 763','054-373-1327', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="H58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N029','운악산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0224','http://www.huyang.go.kr/data/scene/2017_01_17_19_23_550.jpg','경기','경기도 포천시 화현면 화동로184번길 39','031-534-6330', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="H59" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N030','운장산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0194','http://www.huyang.go.kr/data/scene/20110311163046_25775.jpg','전북','전북 진안군 정천면 휴양림길 77','063-432-1193', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="H60" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N031','유명산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0101','http://www.huyang.go.kr/data/scene/2017_01_10_10_13_310.jpg','경기','경기도 가평군 설악면 유명산길 79-53','031-589-5487', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="H61" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N032','제주절물자연휴양림','http://jeolmul.jejusi.go.kr/','https://jeolmul.jejusi.go.kr:457/board/files/inno_5/DSCF2859.jpg','제주','제주도 제주시 봉개동','064-728-3631', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="H62" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N033','중미산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0108','http://www.huyang.go.kr/data/scene/2018_01_08_13_56_430.jpg','경기','경기도 양평군 옥천면 중미산로 1152','031-774-8552', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="H63" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N034','지리산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0190','http://www.huyang.go.kr/data/scene/20110311163645_30930.jpg','경남','경상남도 함양군 마천면 음정길 152','055-963-8133', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="H64" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N035','진도자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0201','http://www.huyang.go.kr/data/product/2017_07_03_18_01_380.jpg','전남','전남 진도군 임회면 굴포리 동령개길 31-1','061-542-2346', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="H65" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N036','천관산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0196','http://www.huyang.go.kr/data/product/2017_02_04_15_20_010.jpg','전남','전라남도 장흥군 관산읍 칠관로 842-1150','061-867-6974', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="H66" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N037','청옥산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0183','http://www.huyang.go.kr/data/scene/2014_01_03_23_26_320.jpg','경북','경북 봉화군 석포면 청옥로 1552-163','054-672-1051~2', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="H67" s="7" t="str">
+        <f t="shared" ref="H67:H72" si="1">"INSERT INTO RESORT VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"','"&amp;E67&amp;"','"&amp;F67&amp;"','"&amp;G67&amp;"', 'Y', now(), now());"</f>
+        <v>INSERT INTO RESORT VALUES('N038','청태산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0106','http://www.huyang.go.kr/data/scene/2017_01_08_09_14_430.jpg','강원','강원도 횡성군 둔내면 청태산로 610','033-343-9707', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="H68" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RESORT VALUES('N039','칠보산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0182','http://www.huyang.go.kr/data/scene/2017_01_06_20_58_120.jpg','경북','경상북도 영덕군 병곡면 칠보산길 587','054-732-1607', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="H69" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RESORT VALUES('N040','통고산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0193','http://www.huyang.go.kr/data/scene/20110311142802_15318.jpg','경북','경상북도 울진군 서면 불영계곡로 880','054-783-3167', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="H70" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RESORT VALUES('N041','황정산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0242','http://www.huyang.go.kr/data/scene/2017_01_11_13_39_530.jpg','충북','충청북도 단양군 대강면 황정산로 239-11','043-421-0608', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="H71" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RESORT VALUES('N042','회문산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0188','http://www.huyang.go.kr/data/scene/%ED%9A%8C%EB%AC%B8%EC%82%B0_%ED%9C%B4%EC%96%91%EB%A6%BC_%ED%92%8D%EA%B2%BD_20170515_20.jpg','전북','전라북도 순창군 구림면 안심길 214','063-653-4779', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="H72" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RESORT VALUES('N043','희리산해송자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0187','http://www.huyang.go.kr/data/scene/20120624134641_32314.jpg','충남','충청남도 서천군 종천면 희리산길 206','041-953-9981,2230', 'Y', now(), now());</v>
       </c>
     </row>
   </sheetData>
@@ -3466,9 +4289,43 @@
     <hyperlink ref="D55" r:id="rId86"/>
     <hyperlink ref="C29" r:id="rId87"/>
     <hyperlink ref="D29" r:id="rId88"/>
+    <hyperlink ref="C72" r:id="rId89"/>
+    <hyperlink ref="C71" r:id="rId90"/>
+    <hyperlink ref="C70" r:id="rId91"/>
+    <hyperlink ref="C69" r:id="rId92"/>
+    <hyperlink ref="C68" r:id="rId93"/>
+    <hyperlink ref="C67" r:id="rId94"/>
+    <hyperlink ref="C66" r:id="rId95"/>
+    <hyperlink ref="C65" r:id="rId96"/>
+    <hyperlink ref="C64" r:id="rId97"/>
+    <hyperlink ref="C63" r:id="rId98"/>
+    <hyperlink ref="C62" r:id="rId99"/>
+    <hyperlink ref="C61" r:id="rId100"/>
+    <hyperlink ref="C60" r:id="rId101"/>
+    <hyperlink ref="C59" r:id="rId102"/>
+    <hyperlink ref="C58" r:id="rId103"/>
+    <hyperlink ref="C57" r:id="rId104"/>
+    <hyperlink ref="C56" r:id="rId105"/>
+    <hyperlink ref="D56" r:id="rId106"/>
+    <hyperlink ref="D57" r:id="rId107"/>
+    <hyperlink ref="D58" r:id="rId108"/>
+    <hyperlink ref="D59" r:id="rId109"/>
+    <hyperlink ref="D60" r:id="rId110"/>
+    <hyperlink ref="D61" r:id="rId111"/>
+    <hyperlink ref="D62" r:id="rId112"/>
+    <hyperlink ref="D63" r:id="rId113"/>
+    <hyperlink ref="D64" r:id="rId114"/>
+    <hyperlink ref="D65" r:id="rId115"/>
+    <hyperlink ref="D66" r:id="rId116"/>
+    <hyperlink ref="D67" r:id="rId117"/>
+    <hyperlink ref="D68" r:id="rId118"/>
+    <hyperlink ref="D69" r:id="rId119"/>
+    <hyperlink ref="D70" r:id="rId120"/>
+    <hyperlink ref="D71" r:id="rId121"/>
+    <hyperlink ref="D72" r:id="rId122"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId123"/>
 </worksheet>
 </file>
 
@@ -3512,7 +4369,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3524,7 +4381,7 @@
       <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F2" t="s">
@@ -3541,7 +4398,7 @@
       <c r="D3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F3" t="s">
@@ -3558,7 +4415,7 @@
       <c r="D4" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F4" t="s">
@@ -3572,219 +4429,219 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/휴양림정보.xlsx
+++ b/휴양림정보.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectHome\workspace\honsul-inthewood-spider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2640" windowWidth="17130" windowHeight="9975"/>
   </bookViews>
@@ -10,9 +15,9 @@
     <sheet name="휴양림" sheetId="1" r:id="rId1"/>
     <sheet name="숙박시설" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="525">
   <si>
     <t>휴양림ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -790,6 +795,578 @@
     <t>033-670-8765</t>
   </si>
   <si>
+    <t>N001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>N004</t>
+  </si>
+  <si>
+    <t>N005</t>
+  </si>
+  <si>
+    <t>N006</t>
+  </si>
+  <si>
+    <t>N007</t>
+  </si>
+  <si>
+    <t>N008</t>
+  </si>
+  <si>
+    <t>N009</t>
+  </si>
+  <si>
+    <t>N010</t>
+  </si>
+  <si>
+    <t>N011</t>
+  </si>
+  <si>
+    <t>N012</t>
+  </si>
+  <si>
+    <t>N013</t>
+  </si>
+  <si>
+    <t>N014</t>
+  </si>
+  <si>
+    <t>N015</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>N017</t>
+  </si>
+  <si>
+    <t>N018</t>
+  </si>
+  <si>
+    <t>N019</t>
+  </si>
+  <si>
+    <t>N020</t>
+  </si>
+  <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>N022</t>
+  </si>
+  <si>
+    <t>N023</t>
+  </si>
+  <si>
+    <t>N024</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>N026</t>
+  </si>
+  <si>
+    <t>가리왕산자연휴양림</t>
+  </si>
+  <si>
+    <t>검마산자연휴양림</t>
+  </si>
+  <si>
+    <t>검봉산자연휴양림</t>
+  </si>
+  <si>
+    <t>낙안민속자연휴양림</t>
+  </si>
+  <si>
+    <t>남해편백자연휴양림</t>
+  </si>
+  <si>
+    <t>대관령자연휴양림</t>
+  </si>
+  <si>
+    <t>대야산자연휴양림</t>
+  </si>
+  <si>
+    <t>덕유산자연휴양림</t>
+  </si>
+  <si>
+    <t>두타산자연휴양림</t>
+  </si>
+  <si>
+    <t>미천골자연휴양림</t>
+  </si>
+  <si>
+    <t>방장산자연휴양림</t>
+  </si>
+  <si>
+    <t>방태산자연휴양림</t>
+  </si>
+  <si>
+    <t>백운산자연휴양림</t>
+  </si>
+  <si>
+    <t>변산자연휴양림</t>
+  </si>
+  <si>
+    <t>복주산자연휴양림</t>
+  </si>
+  <si>
+    <t>산음자연휴양림</t>
+  </si>
+  <si>
+    <t>삼봉자연휴양림</t>
+  </si>
+  <si>
+    <t>상당산성자연휴양림</t>
+  </si>
+  <si>
+    <t>서귀포자연휴양림</t>
+  </si>
+  <si>
+    <t>붉은오름자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속리산말티재자연휴양림</t>
+  </si>
+  <si>
+    <t>신불산폭포자연휴양림</t>
+  </si>
+  <si>
+    <t>아세안자연휴양림</t>
+  </si>
+  <si>
+    <t>오서산자연휴양림</t>
+  </si>
+  <si>
+    <t>용대자연휴양림</t>
+  </si>
+  <si>
+    <t>용현자연휴양림</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://healing.seogwipo.go.kr/seoforest/layout.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://healing.seogwipo.go.kr/redforest/layout.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_12_17_20_030.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_14_11_43_420.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_28_20_20_150.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_06_17_49_310.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_17_18_18_330.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_13_11_57_000.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_08_09_11_45_290.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_21_15_28_570.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_08_28_17_43_220.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_04_23_51_340.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_08_28_17_54_100.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20110311114702_28925.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_04_05_34_240.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_10_17_46_380.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/product/2016_12_30_10_05_490.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/product/2017_05_30_19_10_470.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_17_13_38_160.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2018_01_22_11_13_400.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://healing.seogwipo.go.kr/files/editor/ba083f51-d1e3-4230-8b41-1b1fad5d8e83.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://healing.seogwipo.go.kr/files/editor/d322d3e2-6973-4684-9ddc-2e37c5ee39f5.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20110311150059_49810.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_07_15_48_190.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2018_01_08_16_05_320.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_17_17_47_430.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20091029154014_60012.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2018_01_08_16_38_160.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 정선군 정선읍 가리왕산로 707</t>
+  </si>
+  <si>
+    <t>033-562-5833</t>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도 영양군 수비면 검마산길 191</t>
+  </si>
+  <si>
+    <t>054-682-9009</t>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 삼척시 원덕읍 임원안길 525-145</t>
+  </si>
+  <si>
+    <t>033-574-2553</t>
+  </si>
+  <si>
+    <t>전라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 순천시 낙안면 민속마을길 1600번지</t>
+  </si>
+  <si>
+    <t>061-754-4400</t>
+  </si>
+  <si>
+    <t>경상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상남도 남해군 삼동면 금암로 658</t>
+  </si>
+  <si>
+    <t>055-867-7881</t>
+  </si>
+  <si>
+    <t>강원도 강릉시 성산면 삼포암길 133</t>
+  </si>
+  <si>
+    <t>033-641-9990</t>
+  </si>
+  <si>
+    <t>경상북도 문경시 가은읍 용추길 31-35</t>
+  </si>
+  <si>
+    <t>054-571-7181~2</t>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라북도 무주군 무풍면 구천동로 530-62</t>
+  </si>
+  <si>
+    <t>063-322-1097</t>
+  </si>
+  <si>
+    <t>강원도 평창군 진부면 아차골길 132</t>
+  </si>
+  <si>
+    <t>033-334-8815</t>
+  </si>
+  <si>
+    <t>강원도 양양군 서면 미천골길 115</t>
+  </si>
+  <si>
+    <t>033-673-1806</t>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 장성군 북이면 방장로 353</t>
+  </si>
+  <si>
+    <t>061-394-5523</t>
+  </si>
+  <si>
+    <t>강원도 인제군 기린면 방태산길 241</t>
+  </si>
+  <si>
+    <t>033-463-8590</t>
+  </si>
+  <si>
+    <t>강원도 원주시 판부면 백운산길81</t>
+  </si>
+  <si>
+    <t>033-766-1063</t>
+  </si>
+  <si>
+    <t>전라북도 부안군 변산면 변산로 3768</t>
+  </si>
+  <si>
+    <t>063-581-9977</t>
+  </si>
+  <si>
+    <t>강원도 철원군 근남면 하오재로 818</t>
+  </si>
+  <si>
+    <t>033-458-9426</t>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 양평군 단월면 고북길 347</t>
+  </si>
+  <si>
+    <t>031-774-8133</t>
+  </si>
+  <si>
+    <t>강원도 홍천군 내면 삼봉휴양길 276</t>
+  </si>
+  <si>
+    <t>033-435-8536</t>
+  </si>
+  <si>
+    <t>충북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도 청주시 청원구 내수읍 덕암2길 162</t>
+  </si>
+  <si>
+    <t>043-216-0052</t>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 서귀포시 대포동 산1-1번지 일원 국유림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064-738-4544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 서귀포시 표선면 남조로 1487-73(표선면 가시리 산158번지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064-760-3481~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도 보은군 장안면 속리산로 256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>043-543-6283</t>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산광역시 울주군 상북면 억새벌길 200-78</t>
+  </si>
+  <si>
+    <t>052-254-2124</t>
+  </si>
+  <si>
+    <t>경기도 양주시</t>
+  </si>
+  <si>
+    <t>031-871-2796</t>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 보령시 청라면 오서산길 531</t>
+  </si>
+  <si>
+    <t>041-936-5465,5468</t>
+  </si>
+  <si>
+    <t>강원도 인제군 북면 용대리 연화동길</t>
+  </si>
+  <si>
+    <t>033-462-5031</t>
+  </si>
+  <si>
+    <t>충청남도 서산시 운산면 마애삼존불길 339</t>
+  </si>
+  <si>
+    <t>041-664-1978</t>
+  </si>
+  <si>
     <t>R028</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -815,6 +1392,402 @@
     <t>033-333-0701</t>
   </si>
   <si>
+    <t>N027</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>N030</t>
+  </si>
+  <si>
+    <t>N031</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>N033</t>
+  </si>
+  <si>
+    <t>N034</t>
+  </si>
+  <si>
+    <t>N035</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
+    <t>N037</t>
+  </si>
+  <si>
+    <t>N038</t>
+  </si>
+  <si>
+    <t>N039</t>
+  </si>
+  <si>
+    <t>N040</t>
+  </si>
+  <si>
+    <t>N041</t>
+  </si>
+  <si>
+    <t>N042</t>
+  </si>
+  <si>
+    <t>N043</t>
+  </si>
+  <si>
+    <t>용화산자연휴양림</t>
+  </si>
+  <si>
+    <t>운문산자연휴양림</t>
+  </si>
+  <si>
+    <t>운악산자연휴양림</t>
+  </si>
+  <si>
+    <t>운장산자연휴양림</t>
+  </si>
+  <si>
+    <t>유명산자연휴양림</t>
+  </si>
+  <si>
+    <t>제주절물자연휴양림</t>
+  </si>
+  <si>
+    <t>중미산자연휴양림</t>
+  </si>
+  <si>
+    <t>지리산자연휴양림</t>
+  </si>
+  <si>
+    <t>진도자연휴양림</t>
+  </si>
+  <si>
+    <t>천관산자연휴양림</t>
+  </si>
+  <si>
+    <t>청옥산자연휴양림</t>
+  </si>
+  <si>
+    <t>청태산자연휴양림</t>
+  </si>
+  <si>
+    <t>칠보산자연휴양림</t>
+  </si>
+  <si>
+    <t>통고산자연휴양림</t>
+  </si>
+  <si>
+    <t>황정산자연휴양림</t>
+  </si>
+  <si>
+    <t>회문산자연휴양림</t>
+  </si>
+  <si>
+    <t>희리산해송자연휴양림</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jeolmul.jejusi.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/comforestmain.action?dprtmId=0187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_10_17_41_160.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 춘천시 사북면 사여골길 294</t>
+  </si>
+  <si>
+    <t>033-243-9261</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_07_11_34_310.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도 청도군 운문면 운문로 763</t>
+  </si>
+  <si>
+    <t>054-373-1327</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_17_19_23_550.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 포천시 화현면 화동로184번길 39</t>
+  </si>
+  <si>
+    <t>031-534-6330</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20110311163046_25775.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북 진안군 정천면 휴양림길 77</t>
+  </si>
+  <si>
+    <t>063-432-1193</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_10_10_13_310.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 가평군 설악면 유명산길 79-53</t>
+  </si>
+  <si>
+    <t>031-589-5487</t>
+  </si>
+  <si>
+    <t>https://jeolmul.jejusi.go.kr:457/board/files/inno_5/DSCF2859.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 제주시 봉개동</t>
+  </si>
+  <si>
+    <t>064-728-3631</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2018_01_08_13_56_430.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 양평군 옥천면 중미산로 1152</t>
+  </si>
+  <si>
+    <t>031-774-8552</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20110311163645_30930.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상남도 함양군 마천면 음정길 152</t>
+  </si>
+  <si>
+    <t>055-963-8133</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/product/2017_07_03_18_01_380.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남 진도군 임회면 굴포리 동령개길 31-1</t>
+  </si>
+  <si>
+    <t>061-542-2346</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/product/2017_02_04_15_20_010.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 장흥군 관산읍 칠관로 842-1150</t>
+  </si>
+  <si>
+    <t>061-867-6974</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2014_01_03_23_26_320.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북 봉화군 석포면 청옥로 1552-163</t>
+  </si>
+  <si>
+    <t>054-672-1051~2</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_08_09_14_430.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 횡성군 둔내면 청태산로 610</t>
+  </si>
+  <si>
+    <t>033-343-9707</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_06_20_58_120.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도 영덕군 병곡면 칠보산길 587</t>
+  </si>
+  <si>
+    <t>054-732-1607</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20110311142802_15318.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도 울진군 서면 불영계곡로 880</t>
+  </si>
+  <si>
+    <t>054-783-3167</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/2017_01_11_13_39_530.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도 단양군 대강면 황정산로 239-11</t>
+  </si>
+  <si>
+    <t>043-421-0608</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/%ED%9A%8C%EB%AC%B8%EC%82%B0_%ED%9C%B4%EC%96%91%EB%A6%BC_%ED%92%8D%EA%B2%BD_20170515_20.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라북도 순창군 구림면 안심길 214</t>
+  </si>
+  <si>
+    <t>063-653-4779</t>
+  </si>
+  <si>
+    <t>http://www.huyang.go.kr/data/scene/20120624134641_32314.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 서천군 종천면 희리산길 206</t>
+  </si>
+  <si>
+    <t>041-953-9981,2230</t>
+  </si>
+  <si>
     <t>R029</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,13 +1811,34 @@
   </si>
   <si>
     <t>055-379-8670</t>
+  </si>
+  <si>
+    <t>R030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미숭산자연휴양림</t>
+  </si>
+  <si>
+    <t>http://www.misungsan.com/2014/contents/main/main.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.misungsan.com/2014/images/room/menu02_02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북 고령군 대가야읍 신리 45-17</t>
+  </si>
+  <si>
+    <t>054-950-7407</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,17 +1889,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF454545"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF454545"/>
       <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -956,27 +1959,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -984,26 +1975,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1278,443 +2278,444 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="21.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="31.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="6" t="str">
         <f>"INSERT INTO RESORT VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"', 'Y', now(), now());"</f>
         <v>INSERT INTO RESORT VALUES('R001','좌구산자연휴양림','http://jwagu.jp.go.kr/','http://jwagu.jp.go.kr/jwagusan.do?cmd=gallery.galleryImgView&amp;imgSrc=http://jwagu.jp.go.kr/upload/p1bo9a5mb31ink7aj1tpu10mg1pje4','충북','충북 증평군 증평읍 솟점말길 107','043-835-4551~3 (좌구산자연휴양림)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H28" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', 'Y', now(), now());"</f>
+      <c r="H3" s="6" t="str">
+        <f t="shared" ref="H3:H68" si="0">"INSERT INTO RESORT VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', 'Y', now(), now());"</f>
         <v>INSERT INTO RESORT VALUES('R002','충북알프스자연휴양림','http://alpshuyang.boeun.go.kr/','http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img12.jpg','충북','충청북도 보은군 산외면 장갑리 산 15번지','관리사무소 (043) 543-1472, 1479', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R003','광치자연휴양림','https://www.kwangchi.or.kr:451/','https://www.kwangchi.or.kr:451/board/files/inno_6/test_img5.jpg','강원','강원도 양구군 남면 광치령로1794번길 265 ','대표전화 (033) 482-3115', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R004','문성자연휴양림','http://msf.cj100.net/','http://msf.cj100.net/board/files/inno_6/IMG_6605.JPG','충북','충청북도 충주시 노은면 우성1길 191','043-870-7911~7914 (휴양림관리사무소)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R005','봉황자연휴양림','http://bhf.cj100.net/main.asp','http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%82%B0%EC%B1%85%EB%A1%9C.jpg','충북','충청북도 충주시 중앙탑면 수룡봉황길 540','043-870-7920~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R006','계명산자연휴양림','http://gmf.cjfmc.or.kr/main.asp','http://gmf.cjfmc.or.kr/board/files/inno_5/DSC00298.jpg','충북','충청북도 충주시 충주호수로 1170','043-870-7930~2 / 휴양림관리사무소', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R007','가리산자연휴양림','http://www.garisan.kr/','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424650&amp;fileSn=1&amp;thumbYn=Y','강원','강원도 홍천군 두촌면 가리산길 426 (천현리 산134-1) 홍천군유림','033-435-6034', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R008','봉수산자연휴양림','http://www.bongsoosan.com','http://www.forest.go.kr/newkfsweb/cmm/fms/getImage.do?atchFileId=FILE_000000000424680&amp;fileSn=2&amp;thumbYn=Y','충남','충청남도 예산군 대흥면 임존성길153 (상중리 470-3)','(041) 339-8936~8', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R009','구재봉자연휴양림','http://hadongforest.co.kr/','http://hadongforest.co.kr/files/2016/05/19/8a203687e0e42cf69d6e795007c2aa15144108.jpg','경남','경상남도 하동군 적량면 중서길 60-81','070)8855-8011~2', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R010','군위장곡자연휴양림','http://janggok.gunwi.go.kr/','http://janggok.gunwi.go.kr/new/board/data/winter/1233218459_0.jpg','경북','경북 군위군 고로면 장곡리 산 1-1, 5번지','054-380-6313', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R011','강씨봉자연휴양림','http://farm.gg.go.kr/sigt/56','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_kang_info.jpg','경기','경기도 가평군 북면 논남기길 520(적목리 324)','(031) 8008-6611', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R012','축령산자연휴양림','http://farm.gg.go.kr/sigt/41','http://farm.gg.go.kr/wp-content/uploads/sites/1/2015/06/farm_chuk_info1.jpg','경기','경기도 남양주시 수동면 축령산로299','(031) 592-0681, 8008-6690', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R013','박달재자연휴양림','http://baf.cbhuyang.go.kr/','http://baf.cbhuyang.go.kr/images/facilities/dImg/room3/img1.jpg','충북','충북 제천시 백운면 금봉로 228','(043) 652-0910', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R014','소선암자연휴양림','http://sof.cbhuyang.go.kr/','http://sof.cbhuyang.go.kr/img/main_vi.png','충북','충북 단양군 단성면 대잠2길 15(대잠리 산63)','(043) 422 - 7839', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>141</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -1726,22 +2727,22 @@
       <c r="G16" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R015','남이자연휴양림','http://forestown.geumsan.go.kr/','http://forestown.geumsan.go.kr/images/kr/faci/pic/faci_0202_3_01_large.jpg','충남','충남 금산군 남이면 느티골길 200','041-753-5706(휴양림 관리사무소) 041-750-2607(금산군청 농림과)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -1753,22 +2754,22 @@
       <c r="G17" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R016','칠갑산자연휴양림','http://chilgap.cheongyang.go.kr/','http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg','충남','충남 청양군 대치면 칠갑산로 668-103','041-940-2428~9', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>148</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -1780,22 +2781,22 @@
       <c r="G18" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R017','방화동자연휴양림','http://www.jangsuhuyang.kr/Banghwa1/reserve/list.asp','http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg','전북','전북 장수군 번암면 방화동로 778','063-353-0855', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="10" t="s">
         <v>154</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -1807,22 +2808,22 @@
       <c r="G19" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R018','석모도자연휴양림','http://forest.ganghwa.go.kr','http://forest.ganghwa.go.kr/img/sub/house.jpg','인천','인천광역시 강화군 삼산면 삼산서로 39-75 (417-913)','032-932-1100', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="33">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="10" t="s">
         <v>163</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -1834,22 +2835,22 @@
       <c r="G20" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R019','용문산자연휴양림','https://www.ypforest.com/','https://www.swijapark.com/contents/swi3_photo2/swiphoto_002.jpg','경기','경기도 양평군 양평읍 약수사길 78-14','031-775-4005', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="10" t="s">
         <v>169</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -1861,22 +2862,22 @@
       <c r="G21" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R020','춘천숲자연휴양림','http://www.ccforest.or.kr/','http://www.ccforest.or.kr/img/p1.jpg','강원','강원도 춘천시 동산면 종자리로 224-104','033-264-1156(재단법인 숲 아다지오)', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="33">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="10" t="s">
         <v>174</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -1888,22 +2889,22 @@
       <c r="G22" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R021','치악산자연휴양림','http://www.chiakforest.com/','http://member.nfcf.or.kr/chiak/images/contents/img_fct0203_01.jpg','강원','강원도 원주시 판부면 휴양림길 66','033-762-8288', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="66">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="10" t="s">
         <v>183</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -1915,22 +2916,22 @@
       <c r="G23" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R022','안면도자연휴양림','https://www.anmyonhuyang.go.kr:453/','https://www.anmyonhuyang.go.kr:453/board/files/inno_4/20160906_094910%20%ED%99%94%EB%AA%A9%EB%8F%99%20%EC%A0%84%EA%B2%BD.jpg','충남','충남 태안군 안면읍 안면대로 3195-6','041-674-5019, 670-2452', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="33">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -1942,22 +2943,22 @@
       <c r="G24" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R023','바라산자연휴양림','http://barasan.uw21.net/','http://barasan.uw21.net/images/content/facil/img_forest02.jpg','경기','경기도 의왕시 북골안길 96','031-345-3842', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>206</v>
       </c>
       <c r="E25" s="9" t="s">
@@ -1969,22 +2970,22 @@
       <c r="G25" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R024','와룡자연휴양림','http://www.jangsuhuyang.kr/Waryong/reserve/list.asp','http://www.jangsuhuyang.kr/Waryong/img/facility/ab_overview_primg03.jpg','전북','전북 장수군 천천면 비룡로 632','063-353-1404', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="33">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>196</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -1996,22 +2997,22 @@
       <c r="G26" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R025','망경대산자연휴양림','https://www.mgds.kr:454','https://www.mgds.kr:454/images/facilities/gallery1/dImg/room0/img0.jpg','강원','강원도 영월군 중동면 선도우길 177','033-375-8765', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="33">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>210</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -2023,22 +3024,22 @@
       <c r="G27" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R026','가학산자연휴양림','http://gahak.haenam.go.kr/','http://gahak.haenam.go.kr/images/gahak/contents/fac_02_000_3.jpg','전남','전남 해남군 계곡면 산골길 306','061-535-4812', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="33">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="10" t="s">
         <v>218</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -2050,55 +3051,1251 @@
       <c r="G28" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO RESORT VALUES('R027','송이밸리자연휴양림','http://www.songivalley.co.kr/','https://www.songivalley.co.kr:454/images/utilization/siteplan3.jpg','강원','강원도 양양군 양양읍 남대천로 107-61','033-670-8765', 'Y', now(), now());</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="49.5">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R028','평창자연휴양림','https://forest700.or.kr:10462/','https://forest700.or.kr:10462/data/file/comm2/thumb-599170908_nDOfVxZJ_03_670x447.jpg','강원','강원도 평창군 봉평면 팔송로 285','033-333-0701', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="H30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R029','대운산자연휴양림','http://dwhuyang.yssisul.or.kr/','https://www.yssisul.or.kr/dwhuyang/cmm/fms/getImage.do?atchFileId=FILE_000000000007080&amp;fileSn=0','경남','경상남도 양산시 탑골길 208-124','055-379-8670', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="H31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('R030','미숭산자연휴양림','http://www.misungsan.com/2014/contents/main/main.asp','http://www.misungsan.com/2014/images/room/menu02_02.jpg','경북','경북 고령군 대가야읍 신리 45-17','054-950-7407', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B32" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N001','가리왕산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0113','http://www.huyang.go.kr/data/scene/2017_01_12_17_20_030.jpg','강원','강원도 정선군 정선읍 가리왕산로 707','033-562-5833', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="B33" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N002','검마산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0184','http://www.huyang.go.kr/data/scene/2017_01_14_11_43_420.jpg','경북','경상북도 영양군 수비면 검마산길 191','054-682-9009', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="B34" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N003','검봉산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0244','http://www.huyang.go.kr/data/scene/2017_01_28_20_20_150.png','강원','강원도 삼척시 원덕읍 임원안길 525-145','033-574-2553', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="B35" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N004','낙안민속자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0200','http://www.huyang.go.kr/data/scene/2017_01_06_17_49_310.jpg','전라','전라남도 순천시 낙안면 민속마을길 1600번지','061-754-4400', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="B36" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N005','남해편백자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0192','http://www.huyang.go.kr/data/scene/2017_01_17_18_18_330.jpg','경상','경상남도 남해군 삼동면 금암로 658','055-867-7881', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="B37" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="H37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N006','대관령자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0111','http://www.huyang.go.kr/data/scene/2017_01_13_11_57_000.jpg','강원','강원도 강릉시 성산면 삼포암길 133','033-641-9990', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="49.5">
-      <c r="A30" s="4" t="s">
+      <c r="B38" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="H38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N007','대야산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0245','http://www.huyang.go.kr/data/scene/2017_08_09_11_45_290.jpg','경상','경상북도 문경시 가은읍 용추길 31-35','054-571-7181~2', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B39" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="H39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N008','덕유산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0141','http://www.huyang.go.kr/data/scene/2017_01_21_15_28_570.jpg','전북','전라북도 무주군 무풍면 구천동로 530-62','063-322-1097', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="B40" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="H40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N009','두타산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0243','http://www.huyang.go.kr/data/scene/2017_08_28_17_43_220.jpg','강원','강원도 평창군 진부면 아차골길 132','033-334-8815', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="B41" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="H41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N010','미천골자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0112','http://www.huyang.go.kr/data/scene/2017_01_04_23_51_340.jpg','강원','강원도 양양군 서면 미천골길 115','033-673-1806', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="B42" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N011','방장산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0181','http://www.huyang.go.kr/data/scene/2017_08_28_17_54_100.jpg','전남','전라남도 장성군 북이면 방장로 353','061-394-5523', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="B43" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N012','방태산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0109','http://www.huyang.go.kr/data/scene/20110311114702_28925.jpg','강원','강원도 인제군 기린면 방태산길 241','033-463-8590', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="B44" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="H44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N013','백운산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0223','http://www.huyang.go.kr/data/scene/2017_01_04_05_34_240.jpg','강원','강원도 원주시 판부면 백운산길81','033-766-1063', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>235</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N014','변산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0189','http://www.huyang.go.kr/data/scene/2017_01_10_17_46_380.jpg','전북','전라북도 부안군 변산면 변산로 3768','063-581-9977', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="H46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N015','복주산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0110','http://www.huyang.go.kr/data/product/2016_12_30_10_05_490.jpg','강원','강원도 철원군 근남면 하오재로 818','033-458-9426', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="H47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N016','산음자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0103','http://www.huyang.go.kr/data/product/2017_05_30_19_10_470.jpg','경기','경기도 양평군 단월면 고북길 347','031-774-8133', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="H48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N017','삼봉자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0107','http://www.huyang.go.kr/data/scene/2017_01_17_13_38_160.jpg','강원','강원도 홍천군 내면 삼봉휴양길 276','033-435-8536', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N018','상당산성자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0300','http://www.huyang.go.kr/data/scene/2018_01_22_11_13_400.jpg','충북','충청북도 청주시 청원구 내수읍 덕암2길 162','043-216-0052', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="H50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N019','서귀포자연휴양림','http://healing.seogwipo.go.kr/seoforest/layout.htm','http://healing.seogwipo.go.kr/files/editor/ba083f51-d1e3-4230-8b41-1b1fad5d8e83.jpg','제주','제주도 서귀포시 대포동 산1-1번지 일원 국유림','064-738-4544', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="H51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N020','붉은오름자연휴양림','http://healing.seogwipo.go.kr/redforest/layout.htm','http://healing.seogwipo.go.kr/files/editor/d322d3e2-6973-4684-9ddc-2e37c5ee39f5.jpg','제주','제주도 서귀포시 표선면 남조로 1487-73(표선면 가시리 산158번지)','064-760-3481~2', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N021','속리산말티재자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0115','http://www.huyang.go.kr/data/scene/20110311150059_49810.jpg','충북','충청북도 보은군 장안면 속리산로 256','043-543-6283', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N022','신불산폭포자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0105','http://www.huyang.go.kr/data/scene/2017_01_07_15_48_190.jpg','울산','울산광역시 울주군 상북면 억새벌길 200-78','052-254-2124', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N023','아세안자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0104','http://www.huyang.go.kr/data/scene/2018_01_08_16_05_320.jpg','경기','경기도 양주시','031-871-2796', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="H55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N024','오서산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0191','http://www.huyang.go.kr/data/scene/2017_01_17_17_47_430.jpg','충남','충청남도 보령시 청라면 오서산길 531','041-936-5465,5468', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="H56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N025','용대자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0102','http://www.huyang.go.kr/data/scene/20091029154014_60012.jpg','강원','강원도 인제군 북면 용대리 연화동길','033-462-5031', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="H57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N026','용현자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0220','http://www.huyang.go.kr/data/scene/2018_01_08_16_38_160.jpg','충남','충청남도 서산시 운산면 마애삼존불길 339','041-664-1978', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N027','용화산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0222','http://www.huyang.go.kr/data/scene/2017_01_10_17_41_160.jpg','강원','강원도 춘천시 사북면 사여골길 294','033-243-9261', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="H59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N028','운문산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0195','http://www.huyang.go.kr/data/scene/2017_01_07_11_34_310.jpg','경북','경상북도 청도군 운문면 운문로 763','054-373-1327', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="H60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N029','운악산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0224','http://www.huyang.go.kr/data/scene/2017_01_17_19_23_550.jpg','경기','경기도 포천시 화현면 화동로184번길 39','031-534-6330', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="H61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N030','운장산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0194','http://www.huyang.go.kr/data/scene/20110311163046_25775.jpg','전북','전북 진안군 정천면 휴양림길 77','063-432-1193', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="H62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N031','유명산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0101','http://www.huyang.go.kr/data/scene/2017_01_10_10_13_310.jpg','경기','경기도 가평군 설악면 유명산길 79-53','031-589-5487', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="H63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N032','제주절물자연휴양림','http://jeolmul.jejusi.go.kr/','https://jeolmul.jejusi.go.kr:457/board/files/inno_5/DSCF2859.jpg','제주','제주도 제주시 봉개동','064-728-3631', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="H64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N033','중미산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0108','http://www.huyang.go.kr/data/scene/2018_01_08_13_56_430.jpg','경기','경기도 양평군 옥천면 중미산로 1152','031-774-8552', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="H65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N034','지리산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0190','http://www.huyang.go.kr/data/scene/20110311163645_30930.jpg','경남','경상남도 함양군 마천면 음정길 152','055-963-8133', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="H66" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N035','진도자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0201','http://www.huyang.go.kr/data/product/2017_07_03_18_01_380.jpg','전남','전남 진도군 임회면 굴포리 동령개길 31-1','061-542-2346', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="H67" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N036','천관산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0196','http://www.huyang.go.kr/data/product/2017_02_04_15_20_010.jpg','전남','전라남도 장흥군 관산읍 칠관로 842-1150','061-867-6974', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="H68" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO RESORT VALUES('N037','청옥산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0183','http://www.huyang.go.kr/data/scene/2014_01_03_23_26_320.jpg','경북','경북 봉화군 석포면 청옥로 1552-163','054-672-1051~2', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="H69" s="6" t="str">
+        <f t="shared" ref="H69:H74" si="1">"INSERT INTO RESORT VALUES('"&amp;A69&amp;"','"&amp;B69&amp;"','"&amp;C69&amp;"','"&amp;D69&amp;"','"&amp;E69&amp;"','"&amp;F69&amp;"','"&amp;G69&amp;"', 'Y', now(), now());"</f>
+        <v>INSERT INTO RESORT VALUES('N038','청태산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0106','http://www.huyang.go.kr/data/scene/2017_01_08_09_14_430.jpg','강원','강원도 횡성군 둔내면 청태산로 610','033-343-9707', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RESORT VALUES('N039','칠보산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0182','http://www.huyang.go.kr/data/scene/2017_01_06_20_58_120.jpg','경북','경상북도 영덕군 병곡면 칠보산길 587','054-732-1607', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="H71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RESORT VALUES('N040','통고산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0193','http://www.huyang.go.kr/data/scene/20110311142802_15318.jpg','경북','경상북도 울진군 서면 불영계곡로 880','054-783-3167', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="H72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RESORT VALUES('N041','황정산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0242','http://www.huyang.go.kr/data/scene/2017_01_11_13_39_530.jpg','충북','충청북도 단양군 대강면 황정산로 239-11','043-421-0608', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RESORT VALUES('N042','회문산자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0188','http://www.huyang.go.kr/data/scene/%ED%9A%8C%EB%AC%B8%EC%82%B0_%ED%9C%B4%EC%96%91%EB%A6%BC_%ED%92%8D%EA%B2%BD_20170515_20.jpg','전북','전라북도 순창군 구림면 안심길 214','063-653-4779', 'Y', now(), now());</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="H74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO RESORT VALUES('N043','희리산해송자연휴양림','http://www.huyang.go.kr/comforestmain.action?dprtmId=0187','http://www.huyang.go.kr/data/scene/20120624134641_32314.jpg','충남','충청남도 서천군 종천면 희리산길 206','041-953-9981,2230', 'Y', now(), now());</v>
       </c>
     </row>
   </sheetData>
@@ -2138,30 +4335,118 @@
     <hyperlink ref="D27" r:id="rId32"/>
     <hyperlink ref="C28" r:id="rId33"/>
     <hyperlink ref="D28" r:id="rId34"/>
-    <hyperlink ref="C29" r:id="rId35"/>
-    <hyperlink ref="D29" r:id="rId36"/>
-    <hyperlink ref="C30" r:id="rId37"/>
-    <hyperlink ref="D30" r:id="rId38"/>
+    <hyperlink ref="C32" r:id="rId35"/>
+    <hyperlink ref="C34" r:id="rId36"/>
+    <hyperlink ref="C33" r:id="rId37"/>
+    <hyperlink ref="C35" r:id="rId38"/>
+    <hyperlink ref="C36" r:id="rId39"/>
+    <hyperlink ref="C37" r:id="rId40"/>
+    <hyperlink ref="C38" r:id="rId41"/>
+    <hyperlink ref="C39" r:id="rId42"/>
+    <hyperlink ref="C40" r:id="rId43"/>
+    <hyperlink ref="C41" r:id="rId44"/>
+    <hyperlink ref="C42" r:id="rId45"/>
+    <hyperlink ref="C43" r:id="rId46"/>
+    <hyperlink ref="C44" r:id="rId47"/>
+    <hyperlink ref="C57" r:id="rId48"/>
+    <hyperlink ref="C56" r:id="rId49"/>
+    <hyperlink ref="C55" r:id="rId50"/>
+    <hyperlink ref="C54" r:id="rId51"/>
+    <hyperlink ref="C53" r:id="rId52"/>
+    <hyperlink ref="C52" r:id="rId53"/>
+    <hyperlink ref="C49" r:id="rId54"/>
+    <hyperlink ref="C48" r:id="rId55"/>
+    <hyperlink ref="C47" r:id="rId56"/>
+    <hyperlink ref="C46" r:id="rId57"/>
+    <hyperlink ref="C45" r:id="rId58"/>
+    <hyperlink ref="C50" r:id="rId59"/>
+    <hyperlink ref="C51" r:id="rId60"/>
+    <hyperlink ref="D32" r:id="rId61"/>
+    <hyperlink ref="D33" r:id="rId62"/>
+    <hyperlink ref="D34" r:id="rId63"/>
+    <hyperlink ref="D35" r:id="rId64"/>
+    <hyperlink ref="D36" r:id="rId65"/>
+    <hyperlink ref="D37" r:id="rId66"/>
+    <hyperlink ref="D38" r:id="rId67"/>
+    <hyperlink ref="D40" r:id="rId68"/>
+    <hyperlink ref="D39" r:id="rId69"/>
+    <hyperlink ref="D41" r:id="rId70"/>
+    <hyperlink ref="D42" r:id="rId71"/>
+    <hyperlink ref="D43" r:id="rId72"/>
+    <hyperlink ref="D44" r:id="rId73"/>
+    <hyperlink ref="D45" r:id="rId74"/>
+    <hyperlink ref="D46" r:id="rId75"/>
+    <hyperlink ref="D47" r:id="rId76"/>
+    <hyperlink ref="D48" r:id="rId77"/>
+    <hyperlink ref="D49" r:id="rId78"/>
+    <hyperlink ref="D50" r:id="rId79"/>
+    <hyperlink ref="D51" r:id="rId80"/>
+    <hyperlink ref="D52" r:id="rId81"/>
+    <hyperlink ref="D53" r:id="rId82"/>
+    <hyperlink ref="D54" r:id="rId83"/>
+    <hyperlink ref="D55" r:id="rId84"/>
+    <hyperlink ref="D56" r:id="rId85"/>
+    <hyperlink ref="D57" r:id="rId86"/>
+    <hyperlink ref="C29" r:id="rId87"/>
+    <hyperlink ref="D29" r:id="rId88"/>
+    <hyperlink ref="C74" r:id="rId89"/>
+    <hyperlink ref="C73" r:id="rId90"/>
+    <hyperlink ref="C72" r:id="rId91"/>
+    <hyperlink ref="C71" r:id="rId92"/>
+    <hyperlink ref="C70" r:id="rId93"/>
+    <hyperlink ref="C69" r:id="rId94"/>
+    <hyperlink ref="C68" r:id="rId95"/>
+    <hyperlink ref="C67" r:id="rId96"/>
+    <hyperlink ref="C66" r:id="rId97"/>
+    <hyperlink ref="C65" r:id="rId98"/>
+    <hyperlink ref="C64" r:id="rId99"/>
+    <hyperlink ref="C63" r:id="rId100"/>
+    <hyperlink ref="C62" r:id="rId101"/>
+    <hyperlink ref="C61" r:id="rId102"/>
+    <hyperlink ref="C60" r:id="rId103"/>
+    <hyperlink ref="C59" r:id="rId104"/>
+    <hyperlink ref="C58" r:id="rId105"/>
+    <hyperlink ref="D58" r:id="rId106"/>
+    <hyperlink ref="D59" r:id="rId107"/>
+    <hyperlink ref="D60" r:id="rId108"/>
+    <hyperlink ref="D61" r:id="rId109"/>
+    <hyperlink ref="D62" r:id="rId110"/>
+    <hyperlink ref="D63" r:id="rId111"/>
+    <hyperlink ref="D64" r:id="rId112"/>
+    <hyperlink ref="D65" r:id="rId113"/>
+    <hyperlink ref="D66" r:id="rId114"/>
+    <hyperlink ref="D67" r:id="rId115"/>
+    <hyperlink ref="D68" r:id="rId116"/>
+    <hyperlink ref="D69" r:id="rId117"/>
+    <hyperlink ref="D70" r:id="rId118"/>
+    <hyperlink ref="D71" r:id="rId119"/>
+    <hyperlink ref="D72" r:id="rId120"/>
+    <hyperlink ref="D73" r:id="rId121"/>
+    <hyperlink ref="D74" r:id="rId122"/>
+    <hyperlink ref="C30" r:id="rId123"/>
+    <hyperlink ref="D30" r:id="rId124"/>
+    <hyperlink ref="C31" r:id="rId125"/>
+    <hyperlink ref="D31" r:id="rId126"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId127"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -2187,8 +4472,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2200,7 +4485,7 @@
       <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F2" t="s">
@@ -2213,11 +4498,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F3" t="s">
@@ -2230,11 +4515,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F4" t="s">
@@ -2247,220 +4532,220 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="D5" s="8" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="D6" s="8" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="D7" s="8" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="D8" s="8" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="D9" s="8" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="D10" s="8" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="8" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="8" t="s">
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="8" t="s">
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="8" t="s">
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="8" t="s">
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="8" t="s">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
